--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9683F9-0B86-4317-975E-420BCC2F7B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8702DE36-6477-4B56-9FE1-A6B1C59935C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8702DE36-6477-4B56-9FE1-A6B1C59935C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4485AC-0EFC-463E-8D84-891DEDB0B005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
@@ -19,8 +19,10 @@
     <sheet name="미니게임1 표" sheetId="8" r:id="rId4"/>
     <sheet name="미니게임1 UI" sheetId="7" r:id="rId5"/>
     <sheet name="미니게임2" sheetId="3" r:id="rId6"/>
-    <sheet name="미니게임3" sheetId="4" r:id="rId7"/>
-    <sheet name="미니게임4" sheetId="5" r:id="rId8"/>
+    <sheet name="미니게임2 규칙" sheetId="9" r:id="rId7"/>
+    <sheet name="미니게임2 UI" sheetId="10" r:id="rId8"/>
+    <sheet name="미니게임3" sheetId="4" r:id="rId9"/>
+    <sheet name="미니게임4" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="183">
   <si>
     <t>담당 파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,22 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)화면 최상단에 현재 점수, 현재 진행 중인 게임에서 얻는 재화의 총량이 표기된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)캐릭터는 벽을 밟지 못하고 땅으로 추락하면 안 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 진행 시간에 따른 점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,19 +94,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)새: 10초~15초 사이에 출현하며 x축 기준 왼쪽에서 오른쪽으로 이동하며 캐릭터의 동선을 방해한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)캐릭터는 점점 위로 올라가는 화면 밖으로 나가면 안 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 1초~20초 사이에 벽의 길이는 10칸이며 줄어든다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 21초~40초 사이에 벽의 길이는 5칸이며 이후 벽의 길이는 5칸 이상 줄어들지 않는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,22 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2번째 미니게임 - 곰 먹이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)3마리의 곰이 일정시간동안 랜덤하게 먹이를 먹는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)일정시간이 끝난 후, 플레이어가 어느 곰이 가장 많은 먹이를 먹었는지 맞추는 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)플레이어가 틀린 답을 고름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3번째 미니게임 - 공룡 쉑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)화면 중심에 3마리의 곰이 나란히 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 라운드 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,62 +135,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3) 첫번째 게임의 룰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     - 처음 10초 동안은 1초에 한번씩 랜덤한 곰 한마리에게 먹이를 증정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     - 나머지 10초 동안은 0.8~0.5초에 랜덤한 곰 한마리에게 먹이를 증정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 20초가 끝난 후, 플레이어는 먹이를 가장 많이 먹은 곰을 터치한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 두번째 게임도 동일하게 진행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.2 라운드 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     - 처음 10초 동안은 0.8초에 한번씩 랜덤한 곰 한마리에게 먹이를 증정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 20초가 끝난 후, 플레이어는 먹이를 가장 많이 먹은 곰을 터치한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6) 두번째 게임도 동일하게 진행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     - 나머지 10초 동안은 0.8~0.5초에 랜덤한 곰 두마리에게 먹이를 증정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1) 총 2번의 게임이 진행된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2) 한 게임당 20초씩 진행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)라운드는 총 2라운드이며, 각 라운드당 2번의 게임을 진행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)구름 벽의 크기는 10칸으로 고정이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,18 +147,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)화면 하단 가운데에 n의 속도로 n칸만큼 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    -설정 버튼을 누르면 설정창이 나타나며 게임은 일시정지된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 6)화면은 일정한 n의 속도로 계속해서 위로 상승한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.점수 환산 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6초에 한번씩 n의 속도로 x축 상에서만 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)캐릭터가 벽을 밟고 위로 올라가는 방식이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 7)게임 오버시 게임 오버 문구와 함께 케릭터가 180도 회전하여 땅으로 추락한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 난이도에 따른 수치 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,14 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3) 아이템 등장 확률 10% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)장애물 등장 확률 10% 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3) 5초에 벽 5개 연속해서 밟을 시 콤보 점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)벽 생성 확률 5% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)스프링: 캐릭터의 점프력을 1회 2배 상승시킨다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,18 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)벽 생성 확률 10% 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)장애물 등장 확률 10% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)아이템 등장 확률 10% 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)게임 진행 중 맵 상에 재화가 존재하며, 캐릭터가 해당 재화와 접촉 시 그에 해당하는 인게임 재화를 획득한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,14 +272,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 5)장애물은 x축상에서만 이동하며 캐릭터의 동선을 방해한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)벽의 크기는 n칸으로 랜덤하게 배치되며, 매 초 5개의 벽이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)구름 벽은 5초에 한번씩 랜덤한 위치에 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)위로 올라가는 화면 밖으로 캐릭터가 나감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)캐릭터가 벽을 밟지 못하고 추락 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,11 +316,491 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필요에셋: 캐릭터, 180도 거꾸로 떨어지는 캐릭터, 보호막 씌워진 캐릭터,  뒷배경, 벽, 작은 벽, 구름벽, 스프링, 보호막, 코인, 점수판, 재화판, 새(장애물),설정버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)화면은 매 초당 세로 기준 160px씩 위로 상승한다. </t>
+    <t xml:space="preserve"> 1)화면 상단 왼쪽에 현재 점수, 현재 진행 중인 게임에서 얻는 재화의 총량이 표기된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.점수 환산 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어가 틀린 답을 고름 2)플레이어가 제한시간 안에 답을 못 고름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)화면 상단 오른쪽에 설정 버튼이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)라운드는 총 2라운드로 구성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2) 라운드 1의 룰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2) 라운드2의 룰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -설정 버튼을 누르면 설정창이 나타나며 게임은 일시정지된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 상단 왼쪽에 제한시간, 현재 점수, 현재 진행 중인 게임에서 얻는 재화의 총량이 표기된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)아이템 등장 확률 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 아이템 등장 확률 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)각 라운드 당 제한시간 3초 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)각 라운드 당 제한시간 2초 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 10초동안 진행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 정답에 따른 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -30p/판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 난이도에 따른 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 사이즈 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 화면 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 화면 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)게임 오버시 게임 오버 문구와 함께 캐릭터가 땅으로 추락한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)벽의 크기는 다음과 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)구름 벽은 랜덤한 위치에 확률표에 따라 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)새: x축 기준 왼쪽에서 오른쪽으로 이동하며 캐릭터의 동선을 방해한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면 밖으로 캐릭터가 나감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)장애물 등장 확률 50% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 화면 이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 게임 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 게임 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 확률표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면 하단 가운데에 매초 3칸만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)화면은 매초 1칸씩 계속해서 위로 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면은 매 초당 세로 기준 1칸씩 위로 상승한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30초에 한번씩 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 장애물 속력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)벽은 랜덤한 위치에 확률표에 따라 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요에셋: 캐릭터, 슬픈 표정 캐릭터, 뒷배경, 벽, 작은 벽(벽의 절반 크기), 구름벽, 스프링, 보호막, 코인, 점수판, 재화판, 새,설정버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번째 미니게임 - 판다 먹이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)3마리의 판다가 10초동안 랜덤하게 먹이를 먹는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)곰이 먹이를 다 먹은 뒤, 플레이어는 제한시간 내에 어느 판다가 가장 많은 먹이를 먹었는지 맞춰야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면 중심에 3마리의 판다가 나란히 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 처음 5초 동안은 1초에 한번씩 랜덤한 판다 한마리에게 먹이를 증정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 나머지 5초 동안은 0.8~0.5초에 랜덤한 판다 한마리에게 먹이를 증정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 10초가 끝난 후, 플레이어는 3초의 제한시간 내에 먹이를 가장 많이 먹은 판다를 터치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 처음 6초 동안은 0.8초에 한번씩 랜덤한 판다 한마리에게 먹이를 증정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - 나머지 4초 동안은 0.8~0.5초에 랜덤한 판다 두마리에게 먹이를 증정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 10초가 끝난 후, 플레이어는 3초의 제한시간 내에 먹이를 가장 많이 먹은 판다를 터치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 먹이 생성 규칙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 정답 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0 정답 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 플레이어가 제한시간 내에 가장 많은 먹이를 먹은 판다를 눌렀음이 확인되었을 경우, 답을 맞춘 것으로 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어가 답을 골랐음을 확인 했다면, 제한시간은 0.0초로 바뀐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어가 답을 맞췄다면, 화면 중앙에 동그라미(O)표시를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)플레이어가 답을 맞췄다면, 그에 해당하는 점수를 총점에 더한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)플레이어가 답을 잘못 골랐다면, 화면 중앙에 엑스(X)표시를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)플레이어가 답을 맞췄다면, 라운드2로 넘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 정답 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 휴식시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0 휴식시간 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 휴식시간 적용 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0 먹이 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 먹이 생성 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요에셋: 캐릭터(판다), 뒷배경, 타이머, 점수판, 재화판, 설정버튼, O,X 표시(정답, 오답처리 시 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 재화 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 맞는 답을 골랐을 시, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8초에 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초에 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6초에 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30초에 1번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면은 초당 세로 기준 1칸씩 위로 상승한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 벽 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 벽 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 0초~20초 사이에 벽의 길이는 10칸이며 줄어든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;기본 벽&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 21초 부터 벽의 길이는 5칸이며 이후 벽의 길이는 5칸 이상 줄어들지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;구름 벽&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10칸으로 고정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 아이템 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 아이템 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 장애물 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초에 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초에 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 위 중앙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 장애물 생성 위치 및 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률표에 따라 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> x축 상에서 왼쪽에서 오른쪽으로 이동하며 매초 180px씩 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 휴식시간은 0.5초 주어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임시작 시 휴식시간을 2번 적용한다.(총 1초의 휴식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)매 라운드가 끝날 때마다, 만약 플레이어가 정답을 맞췄다면 휴식시간을 2번(1초의 휴식), 정답을 맞추지 못했다면 휴식시간을 1번 적용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)플레이어가 답을 잘못 골랐다면, 답을 맞추지 못한 해당 라운드를 처음부터 다시 시작한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,6 +808,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,20 +862,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -547,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,7 +921,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,23 +978,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>200902</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>640733</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110602</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>383077</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063446D2-0C71-2E27-F3BE-AC7774286370}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23195A0C-229E-245C-4303-94D371E56961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,8 +1016,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="416802"/>
-          <a:ext cx="1936750" cy="2716400"/>
+          <a:off x="4614019" y="697592"/>
+          <a:ext cx="3053415" cy="4273551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376014</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68780E7B-71E9-A527-55E9-DA9BBC17B639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676190" y="697727"/>
+          <a:ext cx="3010895" cy="4248954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -935,45 +1376,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF42CB7-A176-40F8-9352-8736F43C71C4}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="5"/>
+      <c r="B2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -987,12 +1464,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE06BEA1-9911-4D67-A8DC-46FF33EF3241}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1011,32 +1509,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1046,7 +1544,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1056,122 +1554,107 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
@@ -1224,192 +1707,220 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
-  <dimension ref="A2:A51"/>
+  <dimension ref="A2:C51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>69</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>55</v>
+      <c r="A21" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>81</v>
+      <c r="A25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>15</v>
+      <c r="A27" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>84</v>
+      <c r="A29" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>57</v>
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>91</v>
+      <c r="A33" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>99</v>
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>95</v>
+      <c r="A38" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="4" t="s">
-        <v>96</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" s="3"/>
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" s="3"/>
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
@@ -1421,6 +1932,9 @@
       <c r="A51" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1428,14 +1942,226 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="8.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1443,17 +2169,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1465,17 +2199,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
@@ -1485,148 +2219,160 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>30</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
+      <c r="A18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>33</v>
+      <c r="A23" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>36</v>
+      <c r="A27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>31</v>
+      <c r="A30" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>39</v>
+      <c r="A34" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1636,6 +2382,173 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E74D75-AE0D-49A3-ACAC-CB04913B5FCD}">
+  <dimension ref="B2:C32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C6337E-57CB-49AB-A642-E5011C88FF40}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B303D8EA-8AD3-4DF5-B6C8-5BD3877303F8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1647,28 +2560,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE06BEA1-9911-4D67-A8DC-46FF33EF3241}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4485AC-0EFC-463E-8D84-891DEDB0B005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60D0A6C-1627-4E7E-915B-ECAA10CE8E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="미니게임1 표" sheetId="8" r:id="rId4"/>
     <sheet name="미니게임1 UI" sheetId="7" r:id="rId5"/>
     <sheet name="미니게임2" sheetId="3" r:id="rId6"/>
-    <sheet name="미니게임2 규칙" sheetId="9" r:id="rId7"/>
-    <sheet name="미니게임2 UI" sheetId="10" r:id="rId8"/>
-    <sheet name="미니게임3" sheetId="4" r:id="rId9"/>
+    <sheet name="미니게임2 규칙" sheetId="13" r:id="rId7"/>
+    <sheet name="미니게임2 표" sheetId="11" r:id="rId8"/>
+    <sheet name="미니게임2 UI" sheetId="10" r:id="rId9"/>
     <sheet name="미니게임4" sheetId="5" r:id="rId10"/>
+    <sheet name="미니게임4 규칙" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,15 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="183">
-  <si>
-    <t>담당 파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 미니게임 1, 2, 3, 4번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="252">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,26 +112,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3번째 미니게임 - 공룡 쉑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4번째 미니게임 - 노드게임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 라운드 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 라운드 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 라운드 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)구름 벽의 크기는 10칸으로 고정이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1 구름 벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0 기본 벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 게임 조작 방식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벽 위 중앙에 위치한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>랜덤한 x축에 배치한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,14 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.0 EASY 모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 HARD 모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3) 5초에 벽 5개 연속해서 밟을 시 콤보 점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)보호막: 캐릭터를 1회 장애물로부터 보호해준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)  캐릭터가 벽을 밟지 못하고 추락 2) 캐릭터가 화면에 배치되어 있는 장애물과 충돌하여 추락 3) 위로 올라가는 화면 밖으로 캐릭터가 나감 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,38 +188,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.0 아이템 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 아이템 생성 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 아이템 생성 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 장애물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.0 장애물 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 장애물 생성 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2 장애물 생성 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/24 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)벽과 구름벽은 각각 랜덤하게 배치된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,31 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2)코인: 인게임에서 사용 가능한 재화이다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 화면 이동 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 게임오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)캐릭터가 벽을 밟지 못하고 추락 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.점수 환산 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)플레이어가 틀린 답을 고름 2)플레이어가 제한시간 안에 답을 못 고름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,18 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)라운드는 총 2라운드로 구성된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2) 라운드 1의 룰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2) 라운드2의 룰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> -설정 버튼을 누르면 설정창이 나타나며 게임은 일시정지된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,26 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2)아이템 등장 확률 10% 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 아이템 등장 확률 10% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)각 라운드 당 제한시간 3초 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)각 라운드 당 제한시간 2초 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1) 10초동안 진행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 정답에 따른 점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. 난이도에 따른 수치 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 사이즈 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,22 +316,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)장애물 등장 확률 50% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 장애물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 화면 이동속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스프링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,14 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>720px</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,26 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 게임 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 게임 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 확률표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)화면 하단 가운데에 매초 3칸만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,38 +348,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)화면은 매 초당 세로 기준 1칸씩 위로 상승한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30초에 한번씩 등장한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.3 장애물 속력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)벽은 랜덤한 위치에 확률표에 따라 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1280px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>720px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필요에셋: 캐릭터, 슬픈 표정 캐릭터, 뒷배경, 벽, 작은 벽(벽의 절반 크기), 구름벽, 스프링, 보호막, 코인, 점수판, 재화판, 새,설정버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미니게임2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2번째 미니게임 - 판다 먹이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,50 +368,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)곰이 먹이를 다 먹은 뒤, 플레이어는 제한시간 내에 어느 판다가 가장 많은 먹이를 먹었는지 맞춰야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)화면 중심에 3마리의 판다가 나란히 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     - 처음 5초 동안은 1초에 한번씩 랜덤한 판다 한마리에게 먹이를 증정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     - 나머지 5초 동안은 0.8~0.5초에 랜덤한 판다 한마리에게 먹이를 증정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 10초가 끝난 후, 플레이어는 3초의 제한시간 내에 먹이를 가장 많이 먹은 판다를 터치한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     - 처음 6초 동안은 0.8초에 한번씩 랜덤한 판다 한마리에게 먹이를 증정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     - 나머지 4초 동안은 0.8~0.5초에 랜덤한 판다 두마리에게 먹이를 증정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 10초가 끝난 후, 플레이어는 3초의 제한시간 내에 먹이를 가장 많이 먹은 판다를 터치한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 먹이 생성 규칙 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 정답 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0 정답 기본 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 플레이어가 제한시간 내에 가장 많은 먹이를 먹은 판다를 눌렀음이 확인되었을 경우, 답을 맞춘 것으로 처리한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -636,62 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.1 정답 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 휴식시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0 휴식시간 기본 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 휴식시간 적용 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0 먹이 생성 기본 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 먹이 생성 주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요에셋: 캐릭터(판다), 뒷배경, 타이머, 점수판, 재화판, 설정버튼, O,X 표시(정답, 오답처리 시 필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 재화 기본 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어가 맞는 답을 골랐을 시, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8초에 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10초에 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6초에 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30초에 1번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)화면은 초당 세로 기준 1칸씩 위로 상승한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1 벽 크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,34 +444,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10칸으로 고정.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.1 아이템 등장 확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.2 아이템 생성 위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.1 장애물 등장 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초에 3개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5초에 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생성 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -776,18 +460,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.2 장애물 생성 위치 및 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>확률표에 따라 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> x축 상에서 왼쪽에서 오른쪽으로 이동하며 매초 180px씩 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 휴식시간은 0.5초 주어진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,11 +472,597 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)매 라운드가 끝날 때마다, 만약 플레이어가 정답을 맞췄다면 휴식시간을 2번(1초의 휴식), 정답을 맞추지 못했다면 휴식시간을 1번 적용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)플레이어가 답을 잘못 골랐다면, 답을 맞추지 못한 해당 라운드를 처음부터 다시 시작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10칸으로 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x축 상에서 왼쪽에서 오른쪽으로</t>
+  </si>
+  <si>
+    <t>매초 180px씩 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">초당 세로 기준 1칸씩 위로 상승한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 중첩 횟수 제한: 보호막의 무한 중첩을 방지하기 위해, 보호막을 사용하지 못하고 보호막 아이템을 획득했을 경우, 보호막을 중첩하지 않는다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31~60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50초 마다 50% 확률로 출현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60초 마다 50% 확률로 출현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8초 마다 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초에 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초에 60% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초에 40% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*각 오브젝트들은(아이템, 장애물) 화면 최상단에서 생성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)보호막: 캐릭터를 1회 장애물로부터 보호해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 기본 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 구름 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 아이템 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 아이템 생성 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)재화는 확률표에 따라 생성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 재화 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화는 항상 벽 위 중앙에 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템은 항상 벽 위 중앙에 위치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 재화 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 장애물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 장애물 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 장애물 생성 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 장애물 속력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 화면 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)아이템과의 생성 충돌을 막기위해, 재화는 게임 시작후 1초 뒤부터 계산을 시작한다.(아이템의 계산보다 1초의 늦게 실행한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 재화 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*TRUE = 생성, FALSE = 미생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 재화 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 장애물 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 장애물 이동 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 장애물 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 화면 이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 난이도 별 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/18 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 미니게임1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 미니게임1 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 미니게임1 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 미니게임1 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 미니게임2 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 미니게임2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 미니게임2 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 미니게임2 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;담당 파트&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY 모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등장 확률 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등장 확률 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 EASY 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 HARD 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD 모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8초에 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초 마다 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15초에 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13초 마다 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화면은 매 초당 세로 기준 1칸씩 위로 상승한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)판다가 먹이를 다 먹은 뒤, 플레이어는 제한시간 내에 어느 판다가 가장 많은 먹이를 먹었는지 맞춰야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)라운드는 총 2라운드로 구성되며, 각 라운드는 1,2번의 진행방식으로 구성된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요에셋: 캐릭터(판다), 먹이 먹는 캐릭터, 뒷배경, 타이머, 점수판, 재화판, 설정버튼, O,X 표시(정답, 오답처리 시 필요), Round1, 2 문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 라운드 당 제한시간 3초 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)총 10초동안 진행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)10초가 끝난 후, 플레이어는 3초의 제한시간 내에 먹이를 가장 많이 먹은 판다를 터치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)10초동안 진행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 라운드 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 라운드 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 라운드 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 정답 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0 정답 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 정답 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 휴식시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0 휴식시간 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 휴식시간 적용 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)라운드1이 끝난 뒤, 짧은 휴식시간이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)라운드1이 끝난 후, 만약 플레이어가 정답을 맞췄다면 휴식시간을 2번(1초의 휴식), 정답을 맞추지 못했다면 휴식시간을 1번 적용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5)플레이어가 맞는 답을 골랐다면 1초의 휴식 후 라운드 2로 넘어간다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6)플레이어가 틀린 답을 골랐다면 0.5초의 휴식 후 라운드 1을 다시 시작한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)플레이어가 맞는 답을 골랐다면 게임은 종료된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6)플레이어가 틀린 답을 골랐다면 0.5초의 휴식 후 라운드 2를 다시 시작한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)라운드2가 끝난 후, 만약 플레이어가 정답을 맞추지 못했다면 휴식시간을 1번 적용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 제한시간 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제한시간은 매 라운드 마다 판다가 먹이를 다 먹은 뒤 주어지며, 항상 3초로 고정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 패턴 생성 규칙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0 패턴 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 패턴 생성 주기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)라운드 1에서 판다는 매초마다 음식을 먹으며, 이때 음식을 먹는 판다는 1마리씩만 존재한다. 이때 음식을 먹을 판다는 랜덤하게 선택된다. (각 판다가 음식을 먹을 확률은 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  이때 2마리는 랜덤 확률로 선택된다. (각 판다가 음식을 먹을 확률은 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라운드 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)0~5초 동안은 1초에 한번씩 랜덤한 판다 한마리가 먹이를 먹는다. (각 판다가 음식을 먹을 확률은 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)6~10초 동안은 0.8초에 한번씩 랜덤한 판다 한마리가 먹이를 먹는다. (각 판다가 음식을 먹을 확률은 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라운드  2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)0~5초 동안은 0.8초에 한번씩 랜덤한 판다 한마리가 먹이를 먹는다. (각 판다가 음식을 먹을 확률은 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)6~10초 동안은 0.5초에 한번씩 랜덤한 판다 두마리가 먹이를 먹는다. (각 판다가 음식을 먹을 확률은 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2)처음 5초 동안은 1초에 한번씩 랜덤한 판다 한마리가 먹이를 먹는다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)나머지 5초 동안은 0.8초에 랜덤한 판다 한마리가 먹이를 먹는다.</t>
+  </si>
+  <si>
+    <t>2)처음 5초 동안은 0.8초에 한번씩 랜덤한 판다 한마리에게 먹이를 먹는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)나머지 5초 동안은 0.5초에 한번씩 랜덤한 판다 두마리가 먹이를 먹는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)라운드 2애서 판다는 매초마다 음식을 먹으며, 이때 음식을 먹는 판다는 게임시작 부터 5초까지 1마리씩만 존재한다. 이후 게임이 끝날때까지 음식을 먹을 판다는 2마리씩 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 재화 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 정답을 맞춰 각 라운드가 끝날때 재화를 획득한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 먹이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 난이도 별 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 별 판다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 라운드 별 패턴 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1먹이 패턴 기본 규칙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*위치 별 판다가 먹이를 먹을 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라운드1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라운드2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 먹는 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25번/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹는 마리 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 라운드 별 제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한시간(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD모드 변동 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 라운드 당 먹이를 먹는 마리 수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 1, 2, 4번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +1073,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,8 +1123,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,8 +1144,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -899,13 +1180,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,22 +1233,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,6 +1386,111 @@
         <a:xfrm>
           <a:off x="676190" y="697727"/>
           <a:ext cx="3010895" cy="4248954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198122</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>37499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5CEC37-E52B-3506-801C-6EAD93201012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495836" y="908356"/>
+          <a:ext cx="5045164" cy="2715364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>349544</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>439270</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BE25CF-7C0D-3745-3766-B791E8F72156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="349544" y="893744"/>
+          <a:ext cx="4725226" cy="2698956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,82 +1799,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF42CB7-A176-40F8-9352-8736F43C71C4}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="A1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="H2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="11"/>
+      <c r="A2" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="H2" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
+      <c r="A5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
+      <c r="A6" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="E6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
+      <c r="A7" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
+      <c r="A8" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
+      <c r="A10" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1466,20 +1921,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE06BEA1-9911-4D67-A8DC-46FF33EF3241}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33261ED8-0741-4399-9FC3-968774278C50}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1489,172 +1962,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
-        <v>72</v>
+      <c r="A34" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>73</v>
+      <c r="A35" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
@@ -1707,229 +2175,255 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
-  <dimension ref="A2:C51"/>
+  <dimension ref="A2:C56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>117</v>
+      <c r="A9" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>86</v>
+      <c r="A10" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
+      <c r="A13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="A15" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>43</v>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>38</v>
+      <c r="A23" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>54</v>
+      <c r="A24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>45</v>
+      <c r="A26" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
+      <c r="A27" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>46</v>
+      <c r="A28" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>47</v>
+      <c r="A29" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>88</v>
+      <c r="A33" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>49</v>
+      <c r="A34" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>177</v>
+      <c r="A39" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>55</v>
+      <c r="A41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>114</v>
+      <c r="A42" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>58</v>
+      <c r="A46" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" s="4" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="4"/>
+      <c r="A49" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="3"/>
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1942,221 +2436,381 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
-  <dimension ref="B2:E40"/>
+  <dimension ref="B2:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.58203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>90</v>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>155</v>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="8.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" t="s">
-        <v>166</v>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="7" t="s">
-        <v>159</v>
+      <c r="B10" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>167</v>
+        <v>86</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>87</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="16" t="s">
-        <v>165</v>
+      <c r="B12" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>156</v>
+      <c r="B14" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>97</v>
+      <c r="B19" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>168</v>
+      <c r="B21" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>150</v>
+      <c r="B23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="5" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>152</v>
+      <c r="B25" s="12"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="14" t="s">
-        <v>175</v>
+      <c r="B27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>98</v>
+      <c r="B30" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>171</v>
+      <c r="B32" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="5" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>154</v>
-      </c>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2179,15 +2833,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2199,180 +2853,117 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>127</v>
+      <c r="A21" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>128</v>
+      <c r="A22" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
+      <c r="A23" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>76</v>
+      <c r="A24" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2382,140 +2973,284 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E74D75-AE0D-49A3-ACAC-CB04913B5FCD}">
-  <dimension ref="B2:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
+  <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>145</v>
+      <c r="B7" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>146</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>133</v>
+      <c r="B13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
-        <v>134</v>
+      <c r="B14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>135</v>
+      <c r="B15" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B16" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>149</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B54" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B57" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2528,18 +3263,310 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C6337E-57CB-49AB-A642-E5011C88FF40}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
+  <dimension ref="B2:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>147</v>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B48" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2549,22 +3576,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B303D8EA-8AD3-4DF5-B6C8-5BD3877303F8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C6337E-57CB-49AB-A642-E5011C88FF40}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60D0A6C-1627-4E7E-915B-ECAA10CE8E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599ACB40-00BF-430D-B3E9-BF9625EEA477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="9" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="320">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미니게임1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)화면 하단 가운데에 매초 3칸만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,10 +667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6. 난이도 별 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12/18 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1063,6 +1055,286 @@
   </si>
   <si>
     <t>미니게임 1, 2, 4번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.미니게임1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임 진행방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)점수 환산 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)벽 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임 조작 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)화면 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1 기본 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1 구름 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.1 아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.2 아이템 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.3 아이템 생성 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.1 재화 수량 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.2 재화 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.1 장애물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.2 장애물 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.3 장애물 생성 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.4 장애물 속력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)게임오버 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.2 게임 오버의 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    EASY/HARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1 벽 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2 벽 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.1 아이템 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.2 아이템 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.1 재화 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.2 재화 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1 장애물 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.2 장애물 이동 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.3 장애물 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)화면 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)난이도에 따른 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 난이도 별 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)난이도 별 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.미니게임1 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.미니게임 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.미니게임1 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.미니게임2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2 게임 오버의 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)게임의 모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)게임의 진행방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)패턴 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1 패턴 생성 기본 규칙(라운드1, 라운드2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)라운드 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1 라운드1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2 라운드2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)정답 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.0 정답 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 정답 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)휴식시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.0 휴식시간 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1 휴식시간 적용 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)재화 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.1 제한시간 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.미니게임2 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.미니게임2 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)먹이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1 먹이 패턴 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2 라운드 별 패턴 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)제한시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)난이도 별 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    EASY모드 변동사항 / HARD모드 변동사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.미니게임2 UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,7 +1345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,7 +1429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1193,13 +1465,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,9 +1619,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,6 +1660,90 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1799,114 +2269,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF42CB7-A176-40F8-9352-8736F43C71C4}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="9" max="9" width="12.58203125" customWidth="1"/>
+    <col min="18" max="18" width="11.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="E6" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="E7" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="42" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="s">
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="E8" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="E9" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="E10" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="44"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="44"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="E12" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="47"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="E13" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="E14" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="E15" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="E16" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+    </row>
+    <row r="17" spans="5:18">
+      <c r="E17" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+    </row>
+    <row r="18" spans="5:18">
+      <c r="E18" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+    </row>
+    <row r="19" spans="5:18">
+      <c r="E19" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+    </row>
+    <row r="20" spans="5:18">
+      <c r="E20" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+    </row>
+    <row r="21" spans="5:18">
+      <c r="E21" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+    </row>
+    <row r="22" spans="5:18">
+      <c r="E22" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+    </row>
+    <row r="23" spans="5:18">
+      <c r="E23" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+    </row>
+    <row r="24" spans="5:18">
+      <c r="E24" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+    </row>
+    <row r="25" spans="5:18">
+      <c r="E25" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+    </row>
+    <row r="26" spans="5:18">
+      <c r="E26" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+    </row>
+    <row r="27" spans="5:18">
+      <c r="E27" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+    </row>
+    <row r="28" spans="5:18">
+      <c r="E28" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+    </row>
+    <row r="29" spans="5:18">
+      <c r="E29" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="5:18">
+      <c r="E30" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+    </row>
+    <row r="31" spans="5:18">
+      <c r="E31" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1923,21 +2903,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE06BEA1-9911-4D67-A8DC-46FF33EF3241}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="21">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1951,7 +2927,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1963,208 +2939,208 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1">
       <c r="A47" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1">
       <c r="A55" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1">
       <c r="A59" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1">
       <c r="A64" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1">
       <c r="A69" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1">
       <c r="A73" s="3"/>
     </row>
   </sheetData>
@@ -2177,19 +3153,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
   <dimension ref="A2:C56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:3">
+      <c r="B2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
@@ -2197,7 +3173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
@@ -2205,222 +3181,222 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
         <v>37</v>
       </c>
@@ -2438,11 +3414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="13.08203125" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
@@ -2450,13 +3426,13 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
@@ -2464,7 +3440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5">
       <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
@@ -2472,61 +3448,61 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="8.5" customHeight="1"/>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="8.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
@@ -2534,10 +3510,10 @@
         <v>62</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
         <v>60</v>
       </c>
@@ -2545,10 +3521,10 @@
         <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
@@ -2556,87 +3532,87 @@
         <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4">
       <c r="B21" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C23" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="11"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="5" t="s">
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="5" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B34" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="C34" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3">
       <c r="B35" s="7" t="b">
         <v>0</v>
       </c>
@@ -2644,172 +3620,172 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="16" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3">
       <c r="B39" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3">
       <c r="B43" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B44" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B46" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B48" s="3" t="s">
+    <row r="49" spans="2:3">
+      <c r="B49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B49" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="5" t="s">
+    <row r="52" spans="2:3">
+      <c r="B52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B51" s="3" t="s">
+    <row r="54" spans="2:3">
+      <c r="B54" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B52" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="5" t="s">
+    <row r="55" spans="2:3">
+      <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B54" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B55" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="C55" s="7"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:3">
       <c r="B58" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
       <c r="B60" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
       <c r="B61" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
       <c r="B62" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B63" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C63" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
       <c r="B64" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B70" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C70" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:3">
       <c r="B74" s="4"/>
     </row>
   </sheetData>
@@ -2829,14 +3805,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -2855,115 +3831,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="21">
       <c r="A1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2976,19 +3952,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
@@ -2996,7 +3972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
@@ -3004,253 +3980,253 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B15" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B46" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B47" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B54" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B58" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3266,312 +4242,313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
   <dimension ref="B2:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="4" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+      <c r="C13" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="C14" s="20" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="7" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
         <v>231</v>
       </c>
-      <c r="C13" s="21" t="s">
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B14" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="21" t="s">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D18" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="D19" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="7" t="s">
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4">
       <c r="B27" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C27" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4">
+      <c r="B30" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4">
       <c r="B35" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C35" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4">
       <c r="B36" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C36" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B42" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B43" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="21" t="s">
+      <c r="C50" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B44" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B47" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B48" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B49" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B50" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3583,14 +4560,14 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>51</v>
       </c>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D0595-52DB-457A-9C08-745DB38761D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A82EC-4174-4112-B196-8A276C0C45F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
@@ -21,9 +21,10 @@
     <sheet name="미니게임2" sheetId="3" r:id="rId6"/>
     <sheet name="미니게임2 규칙" sheetId="13" r:id="rId7"/>
     <sheet name="미니게임2 표" sheetId="11" r:id="rId8"/>
-    <sheet name="미니게임2 UI" sheetId="10" r:id="rId9"/>
-    <sheet name="미니게임4" sheetId="5" r:id="rId10"/>
-    <sheet name="미니게임4 규칙" sheetId="14" r:id="rId11"/>
+    <sheet name="미니게임2 데이터" sheetId="15" r:id="rId9"/>
+    <sheet name="미니게임2 UI" sheetId="10" r:id="rId10"/>
+    <sheet name="미니게임4" sheetId="5" r:id="rId11"/>
+    <sheet name="미니게임4 규칙" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="318">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EASY 모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HARD 모드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,18 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EASY 모드 변동 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 EASY 모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2 HARD 모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HARD 모드 변동 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,18 +645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)라운드 1에서 판다는 매초마다 음식을 먹으며, 이때 음식을 먹는 판다는 1마리씩만 존재한다. 이때 음식을 먹을 판다는 랜덤하게 선택된다. (각 판다가 음식을 먹을 확률은 동일하다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  이때 2마리는 랜덤 확률로 선택된다. (각 판다가 음식을 먹을 확률은 동일하다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)라운드 2애서 판다는 매초마다 음식을 먹으며, 이때 음식을 먹는 판다는 게임시작 부터 5초까지 1마리씩만 존재한다. 이후 게임이 끝날때까지 음식을 먹을 판다는 2마리씩 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5. 재화 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -724,10 +697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EASY모드 변동 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1152,30 +1121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)20초~21초:그라데이션(배경 바뀌는 구간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)21초~40초:노을배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)40초~41초:그라데이션(배경 바뀌는 구간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5)41초~60초:밤배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7)61초~:우주배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6)60초~61초:그라데이션(배경 바뀌는 구간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)운석: y축 기준 위에서 아래로 이동하며 캐릭터의 동선을 방해한다. 또한 게임 시작 41초 부터 등장한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1204,14 +1149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5초에 50% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3초 마다 50% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>송곳 등장 확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1232,10 +1169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)0초~20초: 낮배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필요에셋: 캐릭터, 슬픈 표정 캐릭터, 뒷배경(낮,노을,밤,우주), 뒷배경 그라데이션(낮-노을, 노을-밤, 밤-우주) 벽, 구름벽, 송곳벽, 스프링, 보호막, 코인, 점수판, 재화판, 새, 운석, 설정버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1264,15 +1197,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 등장 확률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  *중첩 횟수 제한: 보호막의 무한 중첩을 방지하기 위해, 보호막을 사용하지 못하고 보호막 아이템을 획득했을 경우, 보호막을 중첩하지 않는다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3)만약 먹이를 가장 많이 먹은 판다가 2마리 이상일 경우, 해당 판다들에 한하여 먹이 먹는 횟수를 1회 추가한다. 이때 먹이를 먹는 판다는 1마리로 고정한다.</t>
+    <t>1)패턴에 따라 판다가 먹이를 먹는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)플레이어는 3초의 제한시간 내에 먹이를 가장 많이 먹은 판다를 터치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)플레이어가 맞는 답을 골랐다면 1초의 휴식 후 다음 라운드로 넘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)플레이어가 답을 맞췄다면, 다음 라운드로 넘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)플레이어가 답을 잘못 골랐다면, 게임오버이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)라운드가 끝난 후, 만약 플레이어가 정답을 맞췄다면 휴식시간을 2번(1초의 휴식) 적용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*t는 현재 라운드 수를 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초로 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)0초~20초: 낮배경(그라데이션은 배경이 바뀌는 첫 부분에만 적용한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*가로는 80px로 고정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)20초~60초:노을배경(그라데이션은 배경이 바뀌는 첫 부분에만 적용한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)60초~120초:밤배경(그라데이션은 배경이 바뀌는 첫 부분에만 적용한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)120초~:우주배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+t/3(나머지는 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹는 속도(초/회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)판다는 일정주기로 음식을 먹으며, 이때 음식을 먹을 판다는 랜덤하게 선택된다. (각 판다가 음식을 먹을 확률은 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)만약 먹이를 가장 많이 먹은 판다가 2마리 이상일 경우, 해당 판다들에 한하여 먹이 먹는 횟수를 1회 추가한다. 이때 먹이를 먹는 판다는 1마리로 고정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8-0.1(t/3)(t/3의 나머지는 버림)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1288,156 +1297,40 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1)라운드1~9까지는 먹이를 먹는 판다는 1마리만 존재한다. 라운드10 부터는 먹이를 먹는 판다는 2마리씩 존재한다.</t>
+      <t>1)라운드가 진행되는 동안 먹이를 먹는 판다는 확률표에 따라 1마리 혹은 2마리가 존재한다.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)라운드1~3까지는 먹이를 먹는 속도는 1초에 1회이다. 매 3라운드마다 먹이를 먹는 속도는 0.1초씩 빨라진다. Ex) 라운드4~6: 0.9초 당 1회, 라운드7~9: 0.8초 당 1회... (최대속도는 0.5초에 1회로 한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)라운드1~6까지는 라운드 당 먹이를 먹는 속도가 7회이다. 매 6라운드마다 먹이를 먹는 횟수는 1회씩 증가한다. (최대 먹는 횟수는 12회이다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)패턴에 따라 판다가 먹이를 먹는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)플레이어는 3초의 제한시간 내에 먹이를 가장 많이 먹은 판다를 터치한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)플레이어가 맞는 답을 골랐다면 1초의 휴식 후 다음 라운드로 넘어간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)플레이어가 답을 맞췄다면, 다음 라운드로 넘어간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)플레이어가 답을 잘못 골랐다면, 게임오버이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)라운드가 끝난 후, 만약 플레이어가 정답을 맞췄다면 휴식시간을 2번(1초의 휴식) 적용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초/회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마리수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹는 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1-t/3(t/3의 나머지는 버림))초/회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5초/회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7~29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹는 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*t는 현재 라운드 수를 의미한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3초로 고정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8초/회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0.8-t/3(t/3의 나머지는 버림))초/회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8+t/6(나머지는 버림)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7~23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7+t/6(나머지는 버림)회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정..</t>
+    <t>1~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)라운드1~2까지는 먹이를 먹는 속도는 0.8초에 1회로 고정이다. 이후 매 3라운드마다 먹이를 먹는 속도는 0.1초씩 빨라진다. Ex) 라운드3~5: 0.7초 당 1회 // 라운드6~8: 0.6초 당 1회... (최대속도는 0.5초에 1회로 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)라운드1~2까지는 라운드 당 먹이를 먹는 속도가 8회이다. 매 3라운드마다 먹이를 먹는 횟수는 1회씩 증가한다. (최대 먹는 횟수는 12회이다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7-0.1(t/3)(t/3의 나머지는 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+t/3(나머지는 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹는 횟수(회)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1821,62 +1714,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2405,7 +2298,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2415,70 +2308,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="H2" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="44"/>
+      <c r="A2" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="H2" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="E6" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="31" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="33"/>
       <c r="O6" s="31" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -2486,28 +2379,28 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="E7" s="23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
       <c r="O7" s="34" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -2515,28 +2408,28 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="E8" s="23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="34" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
       <c r="O8" s="34" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -2544,28 +2437,28 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="E9" s="25" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="24"/>
       <c r="H9" s="23" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="34" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
       <c r="O9" s="34" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -2573,28 +2466,28 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="E10" s="25" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="24"/>
       <c r="H10" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="34" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="35"/>
       <c r="O10" s="34" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -2602,28 +2495,28 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="25" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="24"/>
       <c r="H11" s="23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="34" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="35"/>
       <c r="O11" s="34" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -2631,28 +2524,28 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="26" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
       <c r="H12" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="36" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="38"/>
       <c r="O12" s="36" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -2660,28 +2553,28 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="E13" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="31" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
       <c r="O13" s="40" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P13" s="41"/>
       <c r="Q13" s="41"/>
@@ -2689,16 +2582,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="E14" s="25" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="24"/>
       <c r="H14" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="34" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -2707,16 +2600,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="E15" s="25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="24"/>
       <c r="H15" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="34" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -2725,16 +2618,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="E16" s="25" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="24"/>
       <c r="H16" s="23" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="34" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -2743,16 +2636,16 @@
     </row>
     <row r="17" spans="5:14">
       <c r="E17" s="25" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="24"/>
       <c r="H17" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="34" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -2761,16 +2654,16 @@
     </row>
     <row r="18" spans="5:14">
       <c r="E18" s="25" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="24"/>
       <c r="H18" s="23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="34" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -2779,16 +2672,16 @@
     </row>
     <row r="19" spans="5:14">
       <c r="E19" s="25" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="24"/>
       <c r="H19" s="23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="34" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -2797,16 +2690,16 @@
     </row>
     <row r="20" spans="5:14">
       <c r="E20" s="25" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="34" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -2815,16 +2708,16 @@
     </row>
     <row r="21" spans="5:14">
       <c r="E21" s="25" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="24"/>
       <c r="H21" s="29" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="34" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -2833,16 +2726,16 @@
     </row>
     <row r="22" spans="5:14">
       <c r="E22" s="25" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="24"/>
       <c r="H22" s="30" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="34" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -2851,12 +2744,12 @@
     </row>
     <row r="23" spans="5:14">
       <c r="E23" s="25" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="24"/>
       <c r="J23" s="34" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -2865,12 +2758,12 @@
     </row>
     <row r="24" spans="5:14">
       <c r="E24" s="25" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="24"/>
       <c r="J24" s="34" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -2879,12 +2772,12 @@
     </row>
     <row r="25" spans="5:14">
       <c r="E25" s="25" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
       <c r="J25" s="34" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
@@ -2893,12 +2786,12 @@
     </row>
     <row r="26" spans="5:14">
       <c r="E26" s="25" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="24"/>
       <c r="J26" s="34" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -2907,12 +2800,12 @@
     </row>
     <row r="27" spans="5:14">
       <c r="E27" s="25" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="24"/>
       <c r="J27" s="36" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
@@ -2921,28 +2814,28 @@
     </row>
     <row r="28" spans="5:14">
       <c r="E28" s="25" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="5:14">
       <c r="E29" s="25" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="5:14">
       <c r="E30" s="25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="5:14">
       <c r="E31" s="26" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
@@ -2959,6 +2852,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C6337E-57CB-49AB-A642-E5011C88FF40}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE06BEA1-9911-4D67-A8DC-46FF33EF3241}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2980,7 +2903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33261ED8-0741-4399-9FC3-968774278C50}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2997,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3047,7 +2970,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" customHeight="1"/>
@@ -3073,7 +2996,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3083,17 +3006,17 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3113,7 +3036,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -3138,32 +3061,22 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>132</v>
+      <c r="A34" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3216,39 +3129,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
-  <dimension ref="A2:C69"/>
+  <dimension ref="A2:C66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="B2" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="45"/>
+      <c r="B2" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3258,27 +3171,27 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3293,7 +3206,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3313,7 +3226,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3323,27 +3236,27 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3353,176 +3266,161 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>281</v>
+      <c r="A62" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>280</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>274</v>
+      <c r="A65" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="4" t="s">
+      <c r="A66" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3537,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
-  <dimension ref="B2:J85"/>
+  <dimension ref="B2:G80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:B79"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3552,483 +3450,455 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="45"/>
+      <c r="B2" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="8.5" customHeight="1"/>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="48"/>
+        <v>264</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="50">
+        <v>262</v>
+      </c>
+      <c r="C11" s="7">
         <v>100</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="48"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="50">
+        <v>263</v>
+      </c>
+      <c r="C12" s="7">
         <v>60</v>
       </c>
       <c r="D12" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="3" t="s">
-        <v>70</v>
+      <c r="F12" s="54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="54" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>87</v>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="46" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>134</v>
+      <c r="C25" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D25" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="3" t="s">
-        <v>76</v>
+    <row r="26" spans="2:4">
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="5">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="7">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>70</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="7">
-        <v>30</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7">
-        <v>70</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="14" t="s">
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="3" t="s">
+    <row r="40" spans="2:5">
+      <c r="B40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="13"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C46" s="50">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C47" s="50">
+        <v>246</v>
+      </c>
+      <c r="C47" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="3" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="5" t="s">
+    <row r="56" spans="2:3">
+      <c r="B56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="3" t="s">
+    <row r="60" spans="2:3">
+      <c r="B60" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="5">
+    <row r="61" spans="2:3">
+      <c r="B61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:3">
       <c r="B63" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C63" s="5">
+        <v>277</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="3" t="s">
-        <v>130</v>
+    <row r="66" spans="2:3">
+      <c r="B66" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>77</v>
+      <c r="B68" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>290</v>
+      <c r="B70" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>289</v>
-      </c>
+      <c r="B71" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="10"/>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="5"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C76" s="7"/>
+      <c r="B76" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="13"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="10"/>
+      <c r="B77" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="13"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="13"/>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
-        <v>288</v>
-      </c>
-      <c r="C82" s="13"/>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C85" s="53">
+      <c r="B78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" s="46">
         <v>0.2</v>
       </c>
     </row>
@@ -4048,22 +3918,22 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4075,17 +3945,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="78" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4095,22 +3965,22 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4130,12 +4000,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4145,7 +4015,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4155,12 +4025,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4174,21 +4044,13 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4"/>
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>249</v>
+      <c r="A24" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4199,114 +4061,109 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
-  <dimension ref="B2:F44"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="45"/>
+      <c r="B2" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>154</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>306</v>
+      <c r="B11" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>152</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="3" t="s">
-        <v>307</v>
+      <c r="B13" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="3" t="s">
-        <v>139</v>
+      <c r="B17" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>312</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="3" t="s">
-        <v>141</v>
+      <c r="B23" t="s">
+        <v>64</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -4314,13 +4171,13 @@
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -4335,75 +4192,67 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="4" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="4" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>144</v>
+      <c r="B33" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>315</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>157</v>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>149</v>
+      <c r="B43" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4417,10 +4266,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
-  <dimension ref="B2:N44"/>
+  <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4432,25 +4281,25 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C5" s="19">
         <v>0.33300000000000002</v>
@@ -4458,7 +4307,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C6" s="19">
         <v>0.33300000000000002</v>
@@ -4466,397 +4315,286 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C7" s="19">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
+      <c r="B8" s="48" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
+        <v>157</v>
+      </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="7" t="s">
-        <v>170</v>
+      <c r="B11" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="61"/>
+        <v>109</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
       <c r="K11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
+        <v>162</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="57" t="s">
-        <v>319</v>
+      <c r="B12" s="5">
+        <v>1</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="61"/>
+        <v>40</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
       <c r="K12" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="L12" s="51">
+        <v>8</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="59">
+      <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="61"/>
+      <c r="C13" s="7">
+        <v>60</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
       <c r="K13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
+        <v>314</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="55"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="61"/>
+      <c r="C14" s="47"/>
+      <c r="E14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
       <c r="K14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L14" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+        <v>304</v>
+      </c>
+      <c r="L14" s="51">
+        <v>12</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="B16" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="C18" s="47"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D19" s="51"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="51"/>
+      <c r="B21" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="C23" s="51"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="51"/>
+      <c r="B23" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="51" t="s">
-        <v>344</v>
-      </c>
+      <c r="B26" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="K26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="51"/>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>40</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="K27" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L27" s="51">
+        <v>9</v>
+      </c>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>60</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="K28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="C29" s="47"/>
+      <c r="E29" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="K29" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L29" s="51">
+        <v>13</v>
+      </c>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
+      <c r="B31" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L32" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>334</v>
-      </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L33" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="C34" s="59">
-        <v>2</v>
-      </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L34" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="55"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L35" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="54"/>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="54"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="52"/>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="51"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="51"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="C36" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="L14:N14"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="L26:N26"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
@@ -4869,31 +4607,262 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C6337E-57CB-49AB-A642-E5011C88FF40}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F322FCA-EB7F-4F34-8688-918A5336FE99}">
+  <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
+    <row r="2" spans="2:11">
+      <c r="B2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="H2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="51">
+        <v>8</v>
+      </c>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="51">
+        <v>8</v>
+      </c>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="55">
+        <v>3</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="51">
+        <v>9</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="57">
+        <v>4</v>
+      </c>
+      <c r="C6" s="56">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="H6" s="57">
+        <v>4</v>
+      </c>
+      <c r="I6" s="51">
+        <v>9</v>
+      </c>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="58">
+        <v>5</v>
+      </c>
+      <c r="C7" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="53"/>
+      <c r="H7" s="57">
+        <v>5</v>
+      </c>
+      <c r="I7" s="51">
+        <v>9</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="58">
+        <v>6</v>
+      </c>
+      <c r="C8" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="53"/>
+      <c r="H8" s="57">
+        <v>6</v>
+      </c>
+      <c r="I8" s="51">
+        <v>10</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="58">
+        <v>7</v>
+      </c>
+      <c r="C9" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="53"/>
+      <c r="H9" s="57">
+        <v>7</v>
+      </c>
+      <c r="I9" s="51">
+        <v>10</v>
+      </c>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="58">
+        <v>8</v>
+      </c>
+      <c r="C10" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="53"/>
+      <c r="H10" s="57">
+        <v>8</v>
+      </c>
+      <c r="I10" s="51">
+        <v>10</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="58">
+        <v>9</v>
+      </c>
+      <c r="C11" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="H11" s="57">
+        <v>9</v>
+      </c>
+      <c r="I11" s="51">
+        <v>11</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="H12" s="57">
+        <v>10</v>
+      </c>
+      <c r="I12" s="51">
+        <v>11</v>
+      </c>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="H13" s="57">
+        <v>11</v>
+      </c>
+      <c r="I13" s="51">
+        <v>11</v>
+      </c>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="H14" s="57">
+        <v>12</v>
+      </c>
+      <c r="I14" s="51">
+        <v>12</v>
+      </c>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
     </row>
   </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A82EC-4174-4112-B196-8A276C0C45F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754C684-999B-474C-803D-1A493AB1642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="319">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8. 미니게임2 UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세부 목차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,10 +797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    EASY/HARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -905,22 +897,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    1.1 패턴 생성 기본 규칙(라운드1, 라운드2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)라운드 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    2.1 라운드1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.2 라운드2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)정답 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -982,14 +962,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 3)난이도 별 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    EASY모드 변동사항 / HARD모드 변동사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.미니게임2 UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1331,6 +1303,38 @@
   </si>
   <si>
     <t>먹는 횟수(회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    HARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    HARD모드 변동사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.미니게임2 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.미니게임2 데이터 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.미니게임2 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 미니게임2 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0 패턴 생성 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1 패턴 생성 주기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1581,7 +1585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,6 +1736,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,20 +1754,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1768,8 +1769,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2297,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF42CB7-A176-40F8-9352-8736F43C71C4}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2308,36 +2318,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="H2" s="50" t="s">
+      <c r="A2" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="H2" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="50"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2345,7 +2355,7 @@
         <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2355,23 +2365,23 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="E6" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="33"/>
       <c r="O6" s="31" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -2384,23 +2394,23 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="E7" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
       <c r="O7" s="34" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -2413,23 +2423,23 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="E8" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
       <c r="O8" s="34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -2442,23 +2452,23 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="E9" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="24"/>
       <c r="H9" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
       <c r="O9" s="34" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -2471,23 +2481,23 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="E10" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="24"/>
       <c r="H10" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="35"/>
       <c r="O10" s="34" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -2500,23 +2510,23 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="24"/>
       <c r="H11" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="35"/>
       <c r="O11" s="34" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -2529,23 +2539,23 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="26" t="s">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
       <c r="H12" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="36" t="s">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="38"/>
       <c r="O12" s="36" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -2553,63 +2563,74 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="16" t="s">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="E13" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
+      <c r="O13" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="63"/>
     </row>
     <row r="14" spans="1:18">
+      <c r="A14" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="E14" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="24"/>
       <c r="H14" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="35"/>
+      <c r="O14" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:18">
       <c r="E15" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="24"/>
       <c r="H15" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="34" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -2618,16 +2639,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="E16" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="24"/>
       <c r="H16" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="34" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -2636,16 +2657,16 @@
     </row>
     <row r="17" spans="5:14">
       <c r="E17" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="24"/>
       <c r="H17" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -2654,16 +2675,16 @@
     </row>
     <row r="18" spans="5:14">
       <c r="E18" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="24"/>
       <c r="H18" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -2672,16 +2693,16 @@
     </row>
     <row r="19" spans="5:14">
       <c r="E19" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="24"/>
       <c r="H19" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -2690,16 +2711,16 @@
     </row>
     <row r="20" spans="5:14">
       <c r="E20" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -2708,16 +2729,16 @@
     </row>
     <row r="21" spans="5:14">
       <c r="E21" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="24"/>
       <c r="H21" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -2726,16 +2747,16 @@
     </row>
     <row r="22" spans="5:14">
       <c r="E22" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="24"/>
       <c r="H22" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="34" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -2744,12 +2765,12 @@
     </row>
     <row r="23" spans="5:14">
       <c r="E23" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="24"/>
       <c r="J23" s="34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -2758,84 +2779,77 @@
     </row>
     <row r="24" spans="5:14">
       <c r="E24" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="24"/>
       <c r="J24" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+        <v>219</v>
+      </c>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
       <c r="N24" s="35"/>
     </row>
     <row r="25" spans="5:14">
       <c r="E25" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
       <c r="J25" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
+        <v>220</v>
+      </c>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="35"/>
     </row>
     <row r="26" spans="5:14">
       <c r="E26" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="24"/>
-      <c r="J26" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="35"/>
+      <c r="J26" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="5:14">
       <c r="E27" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="24"/>
-      <c r="J27" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="5:14">
       <c r="E28" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="5:14">
       <c r="E29" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="5:14">
       <c r="E30" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="5:14">
       <c r="E31" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
@@ -2863,7 +2877,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2970,7 +2984,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" customHeight="1"/>
@@ -2996,7 +3010,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3006,12 +3020,12 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -3036,7 +3050,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -3066,17 +3080,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3138,10 +3152,10 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
@@ -3181,12 +3195,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3241,7 +3255,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -3311,7 +3325,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3321,12 +3335,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -3336,12 +3350,12 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -3356,52 +3370,52 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -3438,7 +3452,7 @@
   <dimension ref="B2:G80"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3450,10 +3464,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
@@ -3496,20 +3510,20 @@
         <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C11" s="7">
         <v>100</v>
@@ -3518,14 +3532,14 @@
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="53"/>
+      <c r="F11" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C12" s="7">
         <v>60</v>
@@ -3533,13 +3547,13 @@
       <c r="D12" s="7">
         <v>40</v>
       </c>
-      <c r="F12" s="54" t="s">
-        <v>299</v>
+      <c r="F12" s="44" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="54" t="s">
-        <v>299</v>
+      <c r="B13" s="44" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -3566,7 +3580,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -3577,12 +3591,12 @@
         <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="44" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -3603,7 +3617,7 @@
         <v>76</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -3611,7 +3625,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="5">
         <v>75</v>
@@ -3622,7 +3636,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="5">
         <v>75</v>
@@ -3659,7 +3673,7 @@
         <v>109</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -3670,7 +3684,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -3681,7 +3695,7 @@
         <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -3704,7 +3718,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="43" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -3724,14 +3738,14 @@
         <v>50</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C47" s="7">
         <v>25</v>
@@ -3741,7 +3755,7 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C48" s="7">
         <v>25</v>
@@ -3762,7 +3776,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>83</v>
@@ -3770,10 +3784,10 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -3791,15 +3805,15 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>84</v>
@@ -3815,12 +3829,12 @@
         <v>71</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C62" s="5">
         <v>5</v>
@@ -3828,15 +3842,15 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C64" s="5">
         <v>10</v>
@@ -3844,12 +3858,12 @@
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -3859,7 +3873,7 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C71" s="7"/>
     </row>
@@ -3868,35 +3882,35 @@
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C76" s="13"/>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C77" s="13"/>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C80" s="46">
         <v>0.2</v>
@@ -3917,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -3925,7 +3939,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3947,7 +3961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -3970,17 +3984,17 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4000,12 +4014,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4045,12 +4059,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4063,17 +4077,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
   <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
@@ -4093,72 +4107,72 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -4172,7 +4186,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -4192,22 +4206,22 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -4217,7 +4231,7 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -4227,32 +4241,32 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4269,7 +4283,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="L27" sqref="L27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4281,17 +4295,17 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>109</v>
@@ -4299,7 +4313,7 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="19">
         <v>0.33300000000000002</v>
@@ -4307,7 +4321,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="19">
         <v>0.33300000000000002</v>
@@ -4315,7 +4329,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="19">
         <v>0.33300000000000002</v>
@@ -4323,39 +4337,39 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
       <c r="K11" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5">
@@ -4365,22 +4379,22 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F12" s="51">
+        <v>303</v>
+      </c>
+      <c r="F12" s="53">
         <v>0.8</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
       <c r="K12" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L12" s="51">
+        <v>303</v>
+      </c>
+      <c r="L12" s="53">
         <v>8</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="5">
@@ -4390,99 +4404,99 @@
         <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="K13" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
+        <v>307</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" s="47"/>
       <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="K14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F14" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="K14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L14" s="51">
+      <c r="L14" s="53">
         <v>12</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="47"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
       <c r="K26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="L26" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="5">
@@ -4492,22 +4506,22 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F27" s="51">
+        <v>303</v>
+      </c>
+      <c r="F27" s="53">
         <v>0.7</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
       <c r="K27" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L27" s="51">
+        <v>303</v>
+      </c>
+      <c r="L27" s="53">
         <v>9</v>
       </c>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="5">
@@ -4517,46 +4531,46 @@
         <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F28" s="56" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G28" s="56"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="K28" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L28" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
+        <v>307</v>
+      </c>
+      <c r="L28" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
     </row>
     <row r="29" spans="2:14">
       <c r="C29" s="47"/>
       <c r="E29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F29" s="51">
-        <v>0.4</v>
-      </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="K29" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L29" s="51">
+      <c r="L29" s="53">
         <v>13</v>
       </c>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="2:14">
@@ -4567,12 +4581,12 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
@@ -4583,12 +4597,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="L29:N29"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -4599,6 +4607,12 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4610,90 +4624,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F322FCA-EB7F-4F34-8688-918A5336FE99}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="H2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="53">
         <v>0.8</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="53">
         <v>8</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="53">
         <v>0.8</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="53">
         <v>8</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="55">
+      <c r="B5" s="50">
         <v>3</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="53">
         <v>0.7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="53">
         <v>9</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="57">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="56">
@@ -4702,151 +4716,142 @@
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
-      <c r="H6" s="57">
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="53">
         <v>9</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="58">
+      <c r="B7" s="51">
         <v>5</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="54">
         <v>0.7</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="53"/>
-      <c r="H7" s="57">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="55"/>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="53">
         <v>9</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="58">
+      <c r="B8" s="51">
         <v>6</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="54">
         <v>0.6</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="53"/>
-      <c r="H8" s="57">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="55"/>
+      <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="53">
         <v>10</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="58">
+      <c r="B9" s="51">
         <v>7</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="54">
         <v>0.6</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="53"/>
-      <c r="H9" s="57">
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="55"/>
+      <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="53">
         <v>10</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="58">
+      <c r="B10" s="51">
         <v>8</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="54">
         <v>0.6</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="53"/>
-      <c r="H10" s="57">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="55"/>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="53">
         <v>10</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="58">
+      <c r="B11" s="51">
         <v>9</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="58">
         <v>0.5</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="H11" s="57">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="53">
         <v>11</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="H12" s="57">
+      <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="53">
         <v>11</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="H13" s="57">
+      <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="53">
         <v>11</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="H14" s="57">
+      <c r="H14" s="7">
         <v>12</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="53">
         <v>12</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C11:F11"/>
@@ -4861,6 +4866,15 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754C684-999B-474C-803D-1A493AB1642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10A17B7-F1FE-4502-83F8-42794390D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="326">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,10 +857,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6. 난이도 별 수치 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 6)난이도 별 수치 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -989,10 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벽 함정 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1)화면 이동 속도 빠르게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1037,14 +1029,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크기(px)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)화면 하단 가운데에 매초 px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1초에 60% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,10 +1041,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n(n&lt;75)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200px로 고정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,10 +1194,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 1)0초~20초: 낮배경(그라데이션은 배경이 바뀌는 첫 부분에만 적용한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*가로는 80px로 고정이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1335,6 +1311,58 @@
   </si>
   <si>
     <t xml:space="preserve">    1.1 패턴 생성 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 아이템 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 장애물 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로(px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 재화 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면 하단 가운데에 매초 100px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 캐릭터 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 난이도 별 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*높이는 80px로 고정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 함정 추가(송곳)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송곳 크기(px):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)벽의 가로 길이가 120px일 경우(가로x세로): 40x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)벽의 가로 길이가 300px일 경우(가로x세로): 100x55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1585,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1742,6 +1770,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1769,17 +1809,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2307,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF42CB7-A176-40F8-9352-8736F43C71C4}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="55" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -2318,32 +2358,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="H2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="H2" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="52"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -2370,18 +2410,18 @@
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="33"/>
       <c r="O6" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -2394,7 +2434,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="E7" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="24"/>
@@ -2410,7 +2450,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
       <c r="O7" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -2432,14 +2472,14 @@
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
       <c r="O8" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -2452,7 +2492,7 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="E9" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="24"/>
@@ -2461,14 +2501,14 @@
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
       <c r="O9" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -2497,7 +2537,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="35"/>
       <c r="O10" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -2526,7 +2566,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="35"/>
       <c r="O11" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -2539,7 +2579,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="26" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
@@ -2548,14 +2588,14 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="36" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="38"/>
       <c r="O12" s="36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -2563,12 +2603,12 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="E13" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
@@ -2577,22 +2617,22 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="63"/>
+      <c r="O13" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="16" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2606,14 +2646,14 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="35"/>
       <c r="O14" s="40" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -2630,7 +2670,7 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="34" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -2648,7 +2688,7 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="34" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -2666,7 +2706,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -2684,7 +2724,7 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -2702,7 +2742,7 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -2720,7 +2760,7 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -2734,11 +2774,11 @@
       <c r="F21" s="15"/>
       <c r="G21" s="24"/>
       <c r="H21" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -2752,11 +2792,11 @@
       <c r="F22" s="15"/>
       <c r="G22" s="24"/>
       <c r="H22" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -2770,7 +2810,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="24"/>
       <c r="J23" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -2784,11 +2824,11 @@
       <c r="F24" s="15"/>
       <c r="G24" s="24"/>
       <c r="J24" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
+        <v>218</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="35"/>
     </row>
     <row r="25" spans="5:14">
@@ -2798,11 +2838,11 @@
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
       <c r="J25" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
+        <v>219</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="35"/>
     </row>
     <row r="26" spans="5:14">
@@ -2812,7 +2852,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="24"/>
       <c r="J26" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
@@ -2934,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2984,7 +3024,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" customHeight="1"/>
@@ -3010,7 +3050,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3020,12 +3060,12 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -3050,7 +3090,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -3080,17 +3120,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3145,17 +3185,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
   <dimension ref="A2:C66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
@@ -3195,12 +3235,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3255,7 +3295,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -3325,7 +3365,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3335,12 +3375,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -3350,12 +3390,12 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -3370,52 +3410,52 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -3449,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
-  <dimension ref="B2:G80"/>
+  <dimension ref="B2:G103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3464,10 +3504,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
@@ -3510,20 +3550,20 @@
         <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="55"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C11" s="7">
         <v>100</v>
@@ -3532,14 +3572,14 @@
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" s="55"/>
+      <c r="F11" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C12" s="7">
         <v>60</v>
@@ -3548,12 +3588,12 @@
         <v>40</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="44" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -3580,7 +3620,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -3591,16 +3631,16 @@
         <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="44" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3616,9 +3656,7 @@
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>247</v>
-      </c>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="11" t="s">
@@ -3627,9 +3665,7 @@
       <c r="C25" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="5">
-        <v>75</v>
-      </c>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="5" t="s">
@@ -3638,9 +3674,7 @@
       <c r="C26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="5">
-        <v>75</v>
-      </c>
+      <c r="D26" s="65"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
@@ -3657,262 +3691,393 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="7">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="7">
+        <v>50</v>
+      </c>
+      <c r="D34" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="3" t="s">
+    <row r="37" spans="2:4">
+      <c r="B37" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="5" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C38" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="5" t="s">
+      <c r="D38" s="68"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C39" s="51">
         <v>30</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="7" t="b">
+      <c r="D39" s="68"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C40" s="51">
         <v>70</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="14" t="s">
+      <c r="D40" s="68"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="3" t="s">
+    <row r="43" spans="2:4">
+      <c r="B43" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="5" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="43" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="3" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" s="43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="7">
+        <v>60</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="3" t="s">
+    <row r="53" spans="2:5">
+      <c r="B53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="5" t="s">
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C54" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="7">
+        <v>25</v>
+      </c>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="7">
+        <v>90</v>
+      </c>
+      <c r="D70" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="7">
+        <v>50</v>
+      </c>
+      <c r="D71" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="7">
-        <v>25</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="3" t="s">
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C64" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="10"/>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" t="s">
-        <v>267</v>
-      </c>
-      <c r="C77" s="13"/>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C80" s="46">
+    <row r="91" spans="2:3">
+      <c r="B91" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="10"/>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="5"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" s="13"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" s="46">
         <v>0.2</v>
       </c>
     </row>
@@ -3939,7 +4104,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3962,7 +4127,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4014,12 +4179,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4064,7 +4229,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4077,17 +4242,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
   <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
@@ -4117,12 +4282,12 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -4132,17 +4297,17 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -4152,17 +4317,17 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4206,12 +4371,12 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -4241,7 +4406,7 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="2:2">
@@ -4282,8 +4447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:N27"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4347,7 +4512,7 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>109</v>
@@ -4356,20 +4521,20 @@
       <c r="E11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="F11" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
       <c r="K11" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
+      <c r="L11" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5">
@@ -4379,22 +4544,22 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" s="53">
+        <v>297</v>
+      </c>
+      <c r="F12" s="57">
         <v>0.8</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
       <c r="K12" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L12" s="53">
+        <v>297</v>
+      </c>
+      <c r="L12" s="57">
         <v>8</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="5">
@@ -4404,46 +4569,46 @@
         <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F13" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="K13" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="K13" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
+      <c r="L13" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" s="47"/>
       <c r="E14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F14" s="53">
+        <v>285</v>
+      </c>
+      <c r="F14" s="57">
         <v>0.5</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
       <c r="K14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L14" s="53">
+        <v>291</v>
+      </c>
+      <c r="L14" s="57">
         <v>12</v>
       </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -4454,7 +4619,7 @@
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -4474,7 +4639,7 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>109</v>
@@ -4483,20 +4648,20 @@
       <c r="E26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
+      <c r="F26" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
       <c r="K26" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L26" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
+      <c r="L26" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="5">
@@ -4506,22 +4671,22 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F27" s="53">
+        <v>297</v>
+      </c>
+      <c r="F27" s="57">
         <v>0.7</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="K27" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L27" s="53">
+        <v>297</v>
+      </c>
+      <c r="L27" s="57">
         <v>9</v>
       </c>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="5">
@@ -4531,46 +4696,46 @@
         <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
+        <v>298</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
       <c r="K28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L28" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
+        <v>301</v>
+      </c>
+      <c r="L28" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
     </row>
     <row r="29" spans="2:14">
       <c r="C29" s="47"/>
       <c r="E29" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" s="53">
+        <v>285</v>
+      </c>
+      <c r="F29" s="57">
         <v>0.4</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
       <c r="K29" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L29" s="53">
+        <v>291</v>
+      </c>
+      <c r="L29" s="57">
         <v>13</v>
       </c>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="2:14">
@@ -4581,12 +4746,12 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
@@ -4597,6 +4762,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -4607,12 +4778,6 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4634,224 +4799,233 @@
       <c r="B2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="H2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="57">
         <v>0.8</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
       <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="57">
         <v>8</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="57">
         <v>0.8</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
       <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="57">
         <v>8</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="50">
         <v>3</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="57">
         <v>0.7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
       <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="57">
         <v>9</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="60">
         <v>0.7</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
       <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="57">
         <v>9</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="51">
         <v>5</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="58">
         <v>0.7</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="55"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="59"/>
       <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="57">
         <v>9</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="51">
         <v>6</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="58">
         <v>0.6</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="55"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="59"/>
       <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="57">
         <v>10</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="51">
         <v>7</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="58">
         <v>0.6</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="55"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="59"/>
       <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="57">
         <v>10</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="51">
         <v>8</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="58">
         <v>0.6</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="55"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="59"/>
       <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="57">
         <v>10</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="51">
         <v>9</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="62">
         <v>0.5</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
       <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="57">
         <v>11</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:11">
       <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="57">
         <v>11</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:11">
       <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="57">
         <v>11</v>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="2:11">
       <c r="H14" s="7">
         <v>12</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="57">
         <v>12</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C11:F11"/>
@@ -4866,15 +5040,6 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10A17B7-F1FE-4502-83F8-42794390D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614DC5F4-9F5B-415D-BF40-4677C1EBE306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -1613,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1782,6 +1782,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1807,18 +1813,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2358,32 +2352,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="H2" s="56" t="s">
+      <c r="B2" s="58"/>
+      <c r="H2" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="56"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -3192,10 +3186,10 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
@@ -3491,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:G103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3504,10 +3498,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
@@ -3556,10 +3550,10 @@
         <v>252</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
@@ -3572,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
@@ -3656,7 +3650,7 @@
       <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="11" t="s">
@@ -3665,7 +3659,7 @@
       <c r="C25" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="65"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="5" t="s">
@@ -3674,7 +3668,7 @@
       <c r="C26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
@@ -3717,7 +3711,7 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="7">
@@ -3744,7 +3738,7 @@
       <c r="C38" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="68"/>
+      <c r="D38" s="57"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="5" t="s">
@@ -3753,7 +3747,7 @@
       <c r="C39" s="51">
         <v>30</v>
       </c>
-      <c r="D39" s="68"/>
+      <c r="D39" s="57"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="7" t="b">
@@ -3762,7 +3756,7 @@
       <c r="C40" s="51">
         <v>70</v>
       </c>
-      <c r="D40" s="68"/>
+      <c r="D40" s="57"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="14" t="s">
@@ -3911,7 +3905,7 @@
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="56" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3938,7 +3932,7 @@
       </c>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="7" t="s">
         <v>238</v>
       </c>
       <c r="C71" s="7">
@@ -4126,7 +4120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -4249,10 +4243,10 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
@@ -4521,20 +4515,20 @@
       <c r="E11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
       <c r="K11" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5">
@@ -4546,20 +4540,20 @@
       <c r="E12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="59">
         <v>0.8</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
       <c r="K12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="59">
         <v>8</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="5">
@@ -4571,40 +4565,40 @@
       <c r="E13" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
       <c r="K13" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" s="47"/>
       <c r="E14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="59">
         <v>0.5</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
       <c r="K14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="59">
         <v>12</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
@@ -4648,20 +4642,20 @@
       <c r="E26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
       <c r="K26" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L26" s="57" t="s">
+      <c r="L26" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="5">
@@ -4673,20 +4667,20 @@
       <c r="E27" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="59">
         <v>0.7</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
       <c r="K27" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L27" s="57">
+      <c r="L27" s="59">
         <v>9</v>
       </c>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="5">
@@ -4698,40 +4692,40 @@
       <c r="E28" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
       <c r="K28" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L28" s="57" t="s">
+      <c r="L28" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
     </row>
     <row r="29" spans="2:14">
       <c r="C29" s="47"/>
       <c r="E29" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="59">
         <v>0.4</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
       <c r="K29" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L29" s="57">
+      <c r="L29" s="59">
         <v>13</v>
       </c>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
@@ -4762,12 +4756,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="L29:N29"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -4778,6 +4766,12 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4799,233 +4793,224 @@
       <c r="B2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="H2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="59">
         <v>0.8</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="59">
         <v>8</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="59">
         <v>0.8</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="59">
         <v>8</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="50">
         <v>3</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="59">
         <v>0.7</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="59">
         <v>9</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="62">
         <v>0.7</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="59">
         <v>9</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="51">
         <v>5</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="60">
         <v>0.7</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="59"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="61"/>
       <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="59">
         <v>9</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="51">
         <v>6</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="60">
         <v>0.6</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="59"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="61"/>
       <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="59">
         <v>10</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="51">
         <v>7</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="60">
         <v>0.6</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="61"/>
       <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="59">
         <v>10</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="51">
         <v>8</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="60">
         <v>0.6</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="59"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="61"/>
       <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="59">
         <v>10</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="51">
         <v>9</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="64">
         <v>0.5</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
       <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="59">
         <v>11</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="2:11">
       <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="59">
         <v>11</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="2:11">
       <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="59">
         <v>11</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="2:11">
       <c r="H14" s="7">
         <v>12</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="59">
         <v>12</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C11:F11"/>
@@ -5040,6 +5025,15 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614DC5F4-9F5B-415D-BF40-4677C1EBE306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2895E25-067A-4394-AF6C-500004E4A1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="336">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,10 +1342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7. 난이도 별 수치 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*높이는 80px로 고정이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1363,6 +1359,50 @@
   </si>
   <si>
     <t>2)벽의 가로 길이가 300px일 경우(가로x세로): 100x55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)게임 중간중간 나오는 친구들을 구출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 구출요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)캐릭터가 구출할 캐릭터와 스치기만 해도 구출한 것으로 인정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)아이템과 동일하게 확률표에 따라 벽 위 중앙에 위치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)구출 인정과 동시에 점수판의 점수가 즉시 올라간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 재화 인정 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화는 캐릭터와 스치기만 해도 재화를 얻은 것으로 인정한다. 얻은 즉시 재화판의 재화가 올라간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 난이도 별 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 구출 캐릭터 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6초에 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초에 50% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1613,7 +1653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1787,6 +1827,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,56 +1877,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>640733</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>383077</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23195A0C-229E-245C-4303-94D371E56961}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4614019" y="697592"/>
-          <a:ext cx="3053415" cy="4273551"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1911,7 +1904,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1926,6 +1919,56 @@
         <a:xfrm>
           <a:off x="676190" y="697727"/>
           <a:ext cx="3010895" cy="4248954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>367630</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100262</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C506D51-ED54-0E9F-C7ED-707F13A47A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648156" y="652430"/>
+          <a:ext cx="3032961" cy="4828146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2352,32 +2395,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="H2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="H2" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="58"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -2968,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3011,119 +3054,123 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" ht="18.5" customHeight="1">
+      <c r="A12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.5" customHeight="1"/>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3177,19 +3224,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
-  <dimension ref="A2:C66"/>
+  <dimension ref="A2:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
@@ -3342,134 +3389,164 @@
         <v>97</v>
       </c>
     </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="4" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3483,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
-  <dimension ref="B2:G103"/>
+  <dimension ref="B2:G110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView showGridLines="0" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3498,10 +3575,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
@@ -3550,10 +3627,10 @@
         <v>252</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
@@ -3566,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="G11" s="61"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
@@ -3582,12 +3659,12 @@
         <v>40</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -4002,78 +4079,101 @@
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="2:3" ht="16.5" customHeight="1"/>
     <row r="90" spans="2:3">
       <c r="B90" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="7" t="s">
+    <row r="95" spans="2:3">
+      <c r="B95" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="10"/>
-    </row>
-    <row r="93" spans="2:3">
-      <c r="B93" s="3" t="s">
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="10"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="7" t="s">
+    <row r="98" spans="2:3">
+      <c r="B98" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C96" s="13"/>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C97" s="13"/>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" t="s">
-        <v>323</v>
-      </c>
+      <c r="C98" s="5"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" t="s">
-        <v>324</v>
-      </c>
+      <c r="B100" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="13"/>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>325</v>
+        <v>262</v>
+      </c>
+      <c r="C101" s="13"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="7" t="s">
+      <c r="B103" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C103" s="46">
+      <c r="C107" s="46">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C110" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4088,24 +4188,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4243,10 +4343,10 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
@@ -4515,20 +4615,20 @@
       <c r="E11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
       <c r="K11" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5">
@@ -4540,20 +4640,20 @@
       <c r="E12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="60">
         <v>0.8</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
       <c r="K12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="60">
         <v>8</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="5">
@@ -4565,40 +4665,40 @@
       <c r="E13" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="K13" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" s="47"/>
       <c r="E14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="60">
         <v>0.5</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
       <c r="K14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="60">
         <v>12</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
@@ -4642,20 +4742,20 @@
       <c r="E26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
       <c r="K26" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="5">
@@ -4667,20 +4767,20 @@
       <c r="E27" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="60">
         <v>0.7</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
       <c r="K27" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="60">
         <v>9</v>
       </c>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="5">
@@ -4692,40 +4792,40 @@
       <c r="E28" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
       <c r="K28" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
     </row>
     <row r="29" spans="2:14">
       <c r="C29" s="47"/>
       <c r="E29" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="60">
         <v>0.4</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
       <c r="K29" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L29" s="59">
+      <c r="L29" s="60">
         <v>13</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
@@ -4793,221 +4893,221 @@
       <c r="B2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="H2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="60">
         <v>0.8</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="60">
         <v>8</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="60">
         <v>0.8</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="60">
         <v>8</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="50">
         <v>3</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="60">
         <v>0.7</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="60">
         <v>9</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="63">
         <v>0.7</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="60">
         <v>9</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="51">
         <v>5</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="61">
         <v>0.7</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="61"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="62"/>
       <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="60">
         <v>9</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="51">
         <v>6</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="61">
         <v>0.6</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="61"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="62"/>
       <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="60">
         <v>10</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="51">
         <v>7</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="61">
         <v>0.6</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="61"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62"/>
       <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="60">
         <v>10</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="51">
         <v>8</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="61">
         <v>0.6</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="62"/>
       <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="60">
         <v>10</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="51">
         <v>9</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="65">
         <v>0.5</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="60">
         <v>11</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11">
       <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="60">
         <v>11</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="2:11">
       <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="60">
         <v>11</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="2:11">
       <c r="H14" s="7">
         <v>12</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="60">
         <v>12</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2895E25-067A-4394-AF6C-500004E4A1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCC3821-A09F-450C-8C69-6C3F89D038B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,6 @@
     <sheet name="미니게임2 표" sheetId="11" r:id="rId8"/>
     <sheet name="미니게임2 데이터" sheetId="15" r:id="rId9"/>
     <sheet name="미니게임2 UI" sheetId="10" r:id="rId10"/>
-    <sheet name="미니게임4" sheetId="5" r:id="rId11"/>
-    <sheet name="미니게임4 규칙" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="339">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4번째 미니게임 - 노드게임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)구름 벽의 크기는 10칸으로 고정이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)화면 상단 오른쪽에는 설정 버튼이 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)3마리의 판다가 10초동안 랜덤하게 먹이를 먹는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)화면 중심에 3마리의 판다가 나란히 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,14 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)라운드는 총 2라운드로 구성되며, 각 라운드는 1,2번의 진행방식으로 구성된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요에셋: 캐릭터(판다), 먹이 먹는 캐릭터, 뒷배경, 타이머, 점수판, 재화판, 설정버튼, O,X 표시(정답, 오답처리 시 필요), Round1, 2 문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 라운드 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,10 +591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4)라운드1이 끝난 뒤, 짧은 휴식시간이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 제한시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,10 +1019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)벽의 크기는 0초~20초까지는 120px 크기의 벽만 존재한다. 21초 이후에는 300px과 120px 크기의 벽이 랜덤 확률로 등장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,10 +1027,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300px 등장확률(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>120px 등장확률(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1170,10 +1136,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 4)플레이어가 답을 잘못 골랐다면, 게임오버이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)라운드가 끝난 후, 만약 플레이어가 정답을 맞췄다면 휴식시간을 2번(1초의 휴식) 적용한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1334,10 +1296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)화면 하단 가운데에 매초 100px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 캐릭터 크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1370,10 +1328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)캐릭터가 구출할 캐릭터와 스치기만 해도 구출한 것으로 인정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)아이템과 동일하게 확률표에 따라 벽 위 중앙에 위치한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1403,6 +1357,62 @@
   </si>
   <si>
     <t>5초에 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면 하단 가운데에 0.8초당 100px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다. (뛰어 올랐다가 내려오는 것까지 0.8초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8)구출 캐릭터는 각각 랜덤하게 배치된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)구출 캐릭터 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어 캐릭터가 구출할 캐릭터와 스치기만 해도 구출한 것으로 인정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)구출 캐릭터와 플레이어 캐릭터가 스쳤을 경우, 구출된 캐릭터는 0.2초 마다 투명해지며 서서히 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200px 등장확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)벽의 크기는 0초~20초까지는 120px 크기의 벽만 존재한다. 21초 이후에는 200px과 120px 크기의 벽이 랜덤 확률로 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)구름 벽의 크기는 200px으로 고정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요에셋: 캐릭터(판다), 먹이 먹는 캐릭터, 뒷배경, 타이머, 점수판, 재화판, 설정버튼, O,X 표시(정답, 오답처리 시 필요), Round 문구, 숫자 문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)3마리의 판다가 랜덤하게 먹이를 먹는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)라운드가 끝난 후, 만약 플레이어가 정답을 맞췄다면 휴식시간을 4번(2초의 휴식) 적용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)매 라운드가 끝나면, 짧은 휴식시간(2초)이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 라운드 당 먹이 먹는 속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 라운드 별 패턴 규칙(HARD 모드)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1653,7 +1663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1847,15 +1857,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2384,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF42CB7-A176-40F8-9352-8736F43C71C4}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="55" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -2414,51 +2415,51 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="59" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="59"/>
       <c r="H2" s="59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="E6" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="33"/>
       <c r="O6" s="31" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -2466,28 +2467,28 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="E7" s="23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
       <c r="O7" s="34" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -2495,28 +2496,28 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="E8" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="34" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
       <c r="O8" s="34" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -2524,28 +2525,28 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="E9" s="25" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="24"/>
       <c r="H9" s="23" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="34" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
       <c r="O9" s="34" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -2553,28 +2554,28 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="E10" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="24"/>
       <c r="H10" s="23" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="35"/>
       <c r="O10" s="34" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -2582,28 +2583,28 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="24"/>
       <c r="H11" s="23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="34" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="35"/>
       <c r="O11" s="34" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -2611,28 +2612,28 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="26" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
       <c r="H12" s="23" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="36" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="38"/>
       <c r="O12" s="36" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -2640,28 +2641,28 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="16" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="E13" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="31" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
       <c r="O13" s="53" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P13" s="54"/>
       <c r="Q13" s="54"/>
@@ -2669,28 +2670,28 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="16" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="E14" s="25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="24"/>
       <c r="H14" s="23" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="34" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="35"/>
       <c r="O14" s="40" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -2698,16 +2699,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="E15" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="24"/>
       <c r="H15" s="23" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="34" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -2716,16 +2717,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="E16" s="25" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="24"/>
       <c r="H16" s="23" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="34" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -2734,16 +2735,16 @@
     </row>
     <row r="17" spans="5:14">
       <c r="E17" s="25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="24"/>
       <c r="H17" s="23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="34" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -2752,16 +2753,16 @@
     </row>
     <row r="18" spans="5:14">
       <c r="E18" s="25" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="24"/>
       <c r="H18" s="23" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -2770,16 +2771,16 @@
     </row>
     <row r="19" spans="5:14">
       <c r="E19" s="25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="24"/>
       <c r="H19" s="23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -2788,16 +2789,16 @@
     </row>
     <row r="20" spans="5:14">
       <c r="E20" s="25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -2806,16 +2807,16 @@
     </row>
     <row r="21" spans="5:14">
       <c r="E21" s="25" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="24"/>
       <c r="H21" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="34" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -2824,16 +2825,16 @@
     </row>
     <row r="22" spans="5:14">
       <c r="E22" s="25" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="24"/>
       <c r="H22" s="30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="34" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -2842,12 +2843,12 @@
     </row>
     <row r="23" spans="5:14">
       <c r="E23" s="25" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="24"/>
       <c r="J23" s="34" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -2856,12 +2857,12 @@
     </row>
     <row r="24" spans="5:14">
       <c r="E24" s="25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="24"/>
       <c r="J24" s="34" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -2870,12 +2871,12 @@
     </row>
     <row r="25" spans="5:14">
       <c r="E25" s="25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
       <c r="J25" s="34" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
@@ -2884,12 +2885,12 @@
     </row>
     <row r="26" spans="5:14">
       <c r="E26" s="25" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="24"/>
       <c r="J26" s="36" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
@@ -2898,35 +2899,35 @@
     </row>
     <row r="27" spans="5:14">
       <c r="E27" s="25" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="5:14">
       <c r="E28" s="25" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="5:14">
       <c r="E29" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="5:14">
       <c r="E30" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="5:14">
       <c r="E31" s="26" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
@@ -2947,22 +2948,22 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2972,47 +2973,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE06BEA1-9911-4D67-A8DC-46FF33EF3241}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="21">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33261ED8-0741-4399-9FC3-968774278C50}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3031,7 +2997,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3041,7 +3007,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3051,12 +3017,12 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3066,7 +3032,7 @@
     </row>
     <row r="12" spans="1:3" ht="18.5" customHeight="1">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3076,102 +3042,112 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>6</v>
+      <c r="A25" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
-        <v>234</v>
+      <c r="A34" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>260</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3224,69 +3200,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
-  <dimension ref="A2:C73"/>
+  <dimension ref="A2:C74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="B2" s="60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="60"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3296,256 +3272,261 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3562,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:G110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3576,65 +3557,65 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="60"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="8.5" customHeight="1"/>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C11" s="7">
         <v>100</v>
@@ -3644,13 +3625,13 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="61" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C12" s="7">
         <v>60</v>
@@ -3659,126 +3640,126 @@
         <v>40</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="44" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7">
         <v>50</v>
@@ -3789,7 +3770,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7">
         <v>50</v>
@@ -3800,26 +3781,26 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D38" s="57"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" s="51">
         <v>30</v>
@@ -3837,35 +3818,35 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="43" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C48" s="7">
         <v>60</v>
@@ -3873,7 +3854,7 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C49" s="7">
         <v>60</v>
@@ -3888,27 +3869,27 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C55" s="7">
         <v>25</v>
@@ -3917,7 +3898,7 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C56" s="7">
         <v>25</v>
@@ -3925,81 +3906,81 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="56" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C70" s="7">
         <v>90</v>
@@ -4010,7 +3991,7 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C71" s="7">
         <v>50</v>
@@ -4021,20 +4002,20 @@
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C76" s="5">
         <v>5</v>
@@ -4042,15 +4023,15 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C78" s="5">
         <v>10</v>
@@ -4058,12 +4039,12 @@
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C82" s="7">
         <v>200</v>
@@ -4071,7 +4052,7 @@
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C83" s="7">
         <v>250</v>
@@ -4079,34 +4060,34 @@
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="58" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:3" ht="16.5" customHeight="1"/>
     <row r="90" spans="2:3">
       <c r="B90" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C95" s="7"/>
     </row>
@@ -4115,50 +4096,50 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C100" s="13"/>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C101" s="13"/>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C107" s="46">
         <v>0.2</v>
@@ -4166,12 +4147,12 @@
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="58" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C110" s="7"/>
     </row>
@@ -4190,7 +4171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -4198,15 +4179,15 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4218,17 +4199,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4238,32 +4219,27 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>141</v>
+      <c r="A7" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>35</v>
+      <c r="A8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4273,57 +4249,62 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>233</v>
+      <c r="A24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4336,107 +4317,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
   <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="60"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -4445,87 +4426,87 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4541,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4554,25 +4535,25 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C5" s="19">
         <v>0.33300000000000002</v>
@@ -4580,7 +4561,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C6" s="19">
         <v>0.33300000000000002</v>
@@ -4588,7 +4569,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C7" s="19">
         <v>0.33300000000000002</v>
@@ -4596,36 +4577,36 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="48" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
       <c r="K11" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L11" s="60" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M11" s="60"/>
       <c r="N11" s="60"/>
@@ -4638,7 +4619,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F12" s="60">
         <v>0.8</v>
@@ -4647,7 +4628,7 @@
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
       <c r="K12" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L12" s="60">
         <v>8</v>
@@ -4663,19 +4644,19 @@
         <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L13" s="60" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
@@ -4683,7 +4664,7 @@
     <row r="14" spans="2:14">
       <c r="C14" s="47"/>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F14" s="60">
         <v>0.5</v>
@@ -4692,7 +4673,7 @@
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L14" s="60">
         <v>12</v>
@@ -4702,57 +4683,57 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C18" s="47"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
       <c r="K26" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L26" s="60" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
@@ -4765,7 +4746,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F27" s="60">
         <v>0.7</v>
@@ -4774,7 +4755,7 @@
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
       <c r="K27" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L27" s="60">
         <v>9</v>
@@ -4790,19 +4771,19 @@
         <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L28" s="60" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M28" s="60"/>
       <c r="N28" s="60"/>
@@ -4810,7 +4791,7 @@
     <row r="29" spans="2:14">
       <c r="C29" s="47"/>
       <c r="E29" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F29" s="60">
         <v>0.4</v>
@@ -4819,7 +4800,7 @@
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
       <c r="K29" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L29" s="60">
         <v>13</v>
@@ -4829,7 +4810,7 @@
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="2:14">
@@ -4840,12 +4821,12 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
@@ -4881,112 +4862,79 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F322FCA-EB7F-4F34-8688-918A5336FE99}">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A8" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="H2" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="60">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="60">
-        <v>8</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="60">
-        <v>0.8</v>
+      <c r="B4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="60">
-        <v>8</v>
+      <c r="H4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>295</v>
       </c>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="50">
-        <v>3</v>
-      </c>
-      <c r="C5" s="60">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="62"/>
       <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="60">
-        <v>9</v>
-      </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="61">
+        <v>8</v>
+      </c>
+      <c r="J5" s="64"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="63">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="62"/>
       <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="60">
-        <v>9</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="61">
+        <v>8</v>
+      </c>
+      <c r="J6" s="64"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="51">
-        <v>5</v>
+      <c r="B7" s="50">
+        <v>3</v>
       </c>
       <c r="C7" s="61">
         <v>0.7</v>
@@ -4995,55 +4943,55 @@
       <c r="E7" s="64"/>
       <c r="F7" s="62"/>
       <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="60">
+        <v>3</v>
+      </c>
+      <c r="I7" s="61">
         <v>9</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="51">
-        <v>6</v>
+      <c r="B8" s="7">
+        <v>4</v>
       </c>
       <c r="C8" s="61">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
       <c r="F8" s="62"/>
       <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="60">
-        <v>10</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="61">
+        <v>9</v>
+      </c>
+      <c r="J8" s="64"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="61">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
       <c r="F9" s="62"/>
       <c r="H9" s="7">
-        <v>7</v>
-      </c>
-      <c r="I9" s="60">
-        <v>10</v>
-      </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="61">
+        <v>9</v>
+      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="61">
         <v>0.6</v>
@@ -5052,75 +5000,361 @@
       <c r="E10" s="64"/>
       <c r="F10" s="62"/>
       <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="60">
+        <v>6</v>
+      </c>
+      <c r="I10" s="61">
         <v>10</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="51">
+        <v>7</v>
+      </c>
+      <c r="C11" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="62"/>
+      <c r="H11" s="7">
+        <v>7</v>
+      </c>
+      <c r="I11" s="61">
+        <v>10</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="62"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="51">
+        <v>8</v>
+      </c>
+      <c r="C12" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="62"/>
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+      <c r="I12" s="61">
+        <v>10</v>
+      </c>
+      <c r="J12" s="64"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="51">
         <v>9</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C13" s="61">
         <v>0.5</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
-      <c r="H11" s="7">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="62"/>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I13" s="61">
         <v>11</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="60">
-        <v>11</v>
-      </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="60">
-        <v>11</v>
-      </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="2:11">
       <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="61">
+        <v>11</v>
+      </c>
+      <c r="J14" s="64"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="H15" s="7">
+        <v>11</v>
+      </c>
+      <c r="I15" s="61">
+        <v>11</v>
+      </c>
+      <c r="J15" s="64"/>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I16" s="61">
         <v>12</v>
       </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="H21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="62"/>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="61">
+        <v>9</v>
+      </c>
+      <c r="J22" s="64"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="7">
+        <v>2</v>
+      </c>
+      <c r="C23" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="62"/>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="61">
+        <v>9</v>
+      </c>
+      <c r="J23" s="64"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="50">
+        <v>3</v>
+      </c>
+      <c r="C24" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="62"/>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="61">
+        <v>10</v>
+      </c>
+      <c r="J24" s="64"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="62"/>
+      <c r="H25" s="7">
+        <v>4</v>
+      </c>
+      <c r="I25" s="61">
+        <v>10</v>
+      </c>
+      <c r="J25" s="64"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="51">
+        <v>5</v>
+      </c>
+      <c r="C26" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="62"/>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="61">
+        <v>10</v>
+      </c>
+      <c r="J26" s="64"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="51">
+        <v>6</v>
+      </c>
+      <c r="C27" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="62"/>
+      <c r="H27" s="7">
+        <v>6</v>
+      </c>
+      <c r="I27" s="61">
+        <v>11</v>
+      </c>
+      <c r="J27" s="64"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="51">
+        <v>7</v>
+      </c>
+      <c r="C28" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="62"/>
+      <c r="H28" s="7">
+        <v>7</v>
+      </c>
+      <c r="I28" s="61">
+        <v>11</v>
+      </c>
+      <c r="J28" s="64"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="51">
+        <v>8</v>
+      </c>
+      <c r="C29" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="62"/>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="61">
+        <v>11</v>
+      </c>
+      <c r="J29" s="64"/>
+      <c r="K29" s="62"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="51">
+        <v>9</v>
+      </c>
+      <c r="C30" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="62"/>
+      <c r="H30" s="7">
+        <v>9</v>
+      </c>
+      <c r="I30" s="61">
+        <v>12</v>
+      </c>
+      <c r="J30" s="64"/>
+      <c r="K30" s="62"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="H31" s="7">
+        <v>10</v>
+      </c>
+      <c r="I31" s="61">
+        <v>12</v>
+      </c>
+      <c r="J31" s="64"/>
+      <c r="K31" s="62"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="H32" s="7">
+        <v>11</v>
+      </c>
+      <c r="I32" s="61">
+        <v>12</v>
+      </c>
+      <c r="J32" s="64"/>
+      <c r="K32" s="62"/>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33" s="7">
+        <v>12</v>
+      </c>
+      <c r="I33" s="61">
+        <v>13</v>
+      </c>
+      <c r="J33" s="64"/>
+      <c r="K33" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="46">
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCC3821-A09F-450C-8C69-6C3F89D038B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DAF23-E315-499D-8A65-E44388D383DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -3543,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:G110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4047,7 +4047,7 @@
         <v>306</v>
       </c>
       <c r="C82" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -4055,7 +4055,7 @@
         <v>307</v>
       </c>
       <c r="C83" s="7">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:3">
@@ -4317,7 +4317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
   <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -4837,6 +4837,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -4847,12 +4853,6 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5322,43 +5322,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -5368,6 +5331,43 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choec\OneDrive\문서\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2895E25-067A-4394-AF6C-500004E4A1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67C9215-70E6-40C1-9AC1-54423BF19F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="6165" yWindow="2370" windowWidth="22095" windowHeight="12060" firstSheet="1" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
-    <sheet name="미니게임1" sheetId="2" r:id="rId2"/>
-    <sheet name="미니게임1 규칙" sheetId="6" r:id="rId3"/>
+    <sheet name="미니게임1 규칙" sheetId="6" r:id="rId2"/>
+    <sheet name="미니게임1" sheetId="2" r:id="rId3"/>
     <sheet name="미니게임1 표" sheetId="8" r:id="rId4"/>
     <sheet name="미니게임1 UI" sheetId="7" r:id="rId5"/>
     <sheet name="미니게임2" sheetId="3" r:id="rId6"/>
@@ -3008,226 +3008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
-  <dimension ref="A1:C73"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.5" customHeight="1">
-      <c r="A12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
   <dimension ref="A2:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="A11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3558,12 +3343,227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
+  <dimension ref="A1:C73"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.5" customHeight="1">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:G110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4190,7 +4190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -4856,6 +4856,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -4866,12 +4872,6 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5111,6 +5111,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C11:F11"/>
@@ -5125,15 +5134,6 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DAF23-E315-499D-8A65-E44388D383DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5545A48C-10BA-41FC-BFBA-E5E396ABC5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="346">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1413,6 +1413,34 @@
   </si>
   <si>
     <t>1.2 라운드 별 패턴 규칙(HARD 모드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름1, 벽돌1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름2, 벽돌2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노을-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*운석1,2는 랜덤 등장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3543,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:G110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4169,25 +4197,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:16">
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="O6" t="s">
+        <v>341</v>
+      </c>
+      <c r="P6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="O7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="O8" t="s">
+        <v>343</v>
+      </c>
+      <c r="P8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="O9" t="s">
+        <v>344</v>
+      </c>
+      <c r="P9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="O11" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4201,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4317,8 +4382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
   <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4522,7 +4587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -4864,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F322FCA-EB7F-4F34-8688-918A5336FE99}">
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33:K33"/>
+    <sheetView topLeftCell="A22" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5545A48C-10BA-41FC-BFBA-E5E396ABC5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B95EE4-6812-4953-9AF7-CCB00E7238A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="349">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)플레이어가 답을 맞췄다면, 화면 중앙에 동그라미(O)표시를 띄운다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 3)플레이어가 답을 맞췄다면, 그에 해당하는 점수를 총점에 더한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,10 +999,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1초에 60% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5초에 40% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1103,10 +1095,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)벽 아래 부분과 충돌시 떨어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 6)화면은 계속해서 위로 상승한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1119,18 +1107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)패턴에 따라 판다가 먹이를 먹는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)플레이어는 3초의 제한시간 내에 먹이를 가장 많이 먹은 판다를 터치한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)플레이어가 맞는 답을 골랐다면 1초의 휴식 후 다음 라운드로 넘어간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)플레이어가 답을 맞췄다면, 다음 라운드로 넘어간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1152,10 +1128,6 @@
   </si>
   <si>
     <t>9~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)0초~20초: 낮배경(그라데이션은 배경이 바뀌는 첫 부분에만 적용한다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1360,10 +1332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)화면 하단 가운데에 0.8초당 100px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다. (뛰어 올랐다가 내려오는 것까지 0.8초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 8)구출 캐릭터는 각각 랜덤하게 배치된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1441,6 +1409,50 @@
   </si>
   <si>
     <t>*운석1,2는 랜덤 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)캐릭터는 벽 아래 부분을 뚫고 올라갈 수 있다. (올라갈때 벽 아래 부분과 부딪혀 막히는 일 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면 하단 가운데에 0.8초당 150px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다. (뛰어 올랐다가 내려오는 것까지 0.8초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)0초~20초:낮배경(그라데이션은 배경이 바뀌는 첫 부분에만 적용한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초에 60% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)플레이어가 답을 맞췄다면, 화면 중앙에 동그라미(O)표시를 1초동안 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 휴식시간에는 정답 표시(O,X)와 Round, Start 문구를 띄우는 시간에 포함되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)패턴에 따라 판다가 먹이를 먹는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)플레이어는 3초의 제한시간 내에 먹이를 가장 많이 먹은 판다를 터치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)플레이어가 맞는 답을 골랐다면 1초의 휴식 후 다음 라운드로 넘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)3,2,1 숫자가 차례대로 띄워진 후, Round x(x는 Round별 숫자) 문구와 Start 문구가 차례대로 띄워지고 게임이 시작된다. (3,2,1 숫자는 게임 최초 시작시 한번만 나온다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)화면 중앙에 Round x(x는 Round별 숫자를 의미한다.) 문구가 1초동안 띄워진 후, Start 문구가 0.8초동안 띄워진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2443,51 +2455,51 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="59"/>
       <c r="H2" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="E6" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="33"/>
       <c r="O6" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -2495,28 +2507,28 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="E7" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
       <c r="O7" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -2524,28 +2536,28 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="E8" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="24"/>
       <c r="H8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
       <c r="O8" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -2553,28 +2565,28 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="E9" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="24"/>
       <c r="H9" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
       <c r="O9" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -2582,28 +2594,28 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="E10" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="24"/>
       <c r="H10" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="35"/>
       <c r="O10" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -2611,28 +2623,28 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="24"/>
       <c r="H11" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="35"/>
       <c r="O11" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -2640,28 +2652,28 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="26" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
       <c r="H12" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="38"/>
       <c r="O12" s="36" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -2669,28 +2681,28 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="16" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="E13" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
       <c r="O13" s="53" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="P13" s="54"/>
       <c r="Q13" s="54"/>
@@ -2698,28 +2710,28 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="E14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="24"/>
       <c r="H14" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="35"/>
       <c r="O14" s="40" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -2727,16 +2739,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="E15" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="24"/>
       <c r="H15" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="34" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -2745,16 +2757,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="E16" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="24"/>
       <c r="H16" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="34" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -2763,16 +2775,16 @@
     </row>
     <row r="17" spans="5:14">
       <c r="E17" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="24"/>
       <c r="H17" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -2781,16 +2793,16 @@
     </row>
     <row r="18" spans="5:14">
       <c r="E18" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="24"/>
       <c r="H18" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -2799,16 +2811,16 @@
     </row>
     <row r="19" spans="5:14">
       <c r="E19" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="24"/>
       <c r="H19" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -2817,16 +2829,16 @@
     </row>
     <row r="20" spans="5:14">
       <c r="E20" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -2835,16 +2847,16 @@
     </row>
     <row r="21" spans="5:14">
       <c r="E21" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="24"/>
       <c r="H21" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -2853,16 +2865,16 @@
     </row>
     <row r="22" spans="5:14">
       <c r="E22" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="24"/>
       <c r="H22" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -2871,12 +2883,12 @@
     </row>
     <row r="23" spans="5:14">
       <c r="E23" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="24"/>
       <c r="J23" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -2885,12 +2897,12 @@
     </row>
     <row r="24" spans="5:14">
       <c r="E24" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="24"/>
       <c r="J24" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -2899,12 +2911,12 @@
     </row>
     <row r="25" spans="5:14">
       <c r="E25" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
       <c r="J25" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
@@ -2913,12 +2925,12 @@
     </row>
     <row r="26" spans="5:14">
       <c r="E26" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="24"/>
       <c r="J26" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
@@ -2927,35 +2939,35 @@
     </row>
     <row r="27" spans="5:14">
       <c r="E27" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="5:14">
       <c r="E28" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="5:14">
       <c r="E29" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="5:14">
       <c r="E30" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="5:14">
       <c r="E31" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
@@ -2983,7 +2995,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3006,7 +3018,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3050,7 +3062,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3060,7 +3072,7 @@
     </row>
     <row r="12" spans="1:3" ht="18.5" customHeight="1">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3085,7 +3097,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3095,12 +3107,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3110,7 +3122,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3130,7 +3142,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3160,22 +3172,22 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3230,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
   <dimension ref="A2:C74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3260,7 +3272,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3270,7 +3282,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3280,17 +3292,17 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3300,7 +3312,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3325,7 +3337,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3335,27 +3347,27 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3365,52 +3377,52 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3420,97 +3432,97 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -3535,27 +3547,27 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3571,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:G110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:C83"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3612,73 +3624,73 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="8.5" customHeight="1"/>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="44" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -3689,7 +3701,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -3700,7 +3712,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -3711,12 +3723,12 @@
         <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -3726,7 +3738,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -3734,7 +3746,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="10"/>
     </row>
@@ -3743,7 +3755,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="10"/>
     </row>
@@ -3752,26 +3764,26 @@
         <v>55</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -3779,10 +3791,10 @@
         <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -3809,26 +3821,26 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="52" t="s">
         <v>105</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>106</v>
       </c>
       <c r="D38" s="57"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="51">
         <v>30</v>
@@ -3846,35 +3858,35 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C48" s="7">
         <v>60</v>
@@ -3882,7 +3894,7 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C49" s="7">
         <v>60</v>
@@ -3902,7 +3914,7 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" s="10"/>
     </row>
@@ -3911,13 +3923,13 @@
         <v>48</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C55" s="7">
         <v>25</v>
@@ -3926,7 +3938,7 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="7">
         <v>25</v>
@@ -3934,7 +3946,7 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -3942,28 +3954,28 @@
         <v>48</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -3971,28 +3983,28 @@
         <v>48</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="56" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -4000,15 +4012,15 @@
         <v>48</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C70" s="7">
         <v>90</v>
@@ -4019,7 +4031,7 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C71" s="7">
         <v>50</v>
@@ -4030,20 +4042,20 @@
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76" s="5">
         <v>5</v>
@@ -4051,15 +4063,15 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C78" s="5">
         <v>10</v>
@@ -4067,12 +4079,12 @@
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C82" s="7">
         <v>100</v>
@@ -4080,7 +4092,7 @@
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C83" s="7">
         <v>100</v>
@@ -4088,34 +4100,34 @@
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="58" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:3" ht="16.5" customHeight="1"/>
     <row r="90" spans="2:3">
       <c r="B90" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="7"/>
     </row>
@@ -4124,50 +4136,50 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C100" s="13"/>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C101" s="13"/>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C107" s="46">
         <v>0.2</v>
@@ -4175,12 +4187,12 @@
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="58" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C110" s="7"/>
     </row>
@@ -4199,7 +4211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -4207,7 +4219,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4220,39 +4232,39 @@
     </row>
     <row r="6" spans="1:16">
       <c r="O6" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P6" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="O7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="P7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="O8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P8" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="O9" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P9" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="O11" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -4266,8 +4278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" activeCellId="1" sqref="A16 I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4284,17 +4296,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4307,9 +4319,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
+      <c r="A11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4319,17 +4336,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4359,17 +4376,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4380,10 +4397,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
-  <dimension ref="B2:F43"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4412,166 +4429,176 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="3" t="s">
-        <v>130</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="3" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="4" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="3" t="s">
-        <v>133</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>76</v>
+      <c r="B33" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>135</v>
+      <c r="B34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>335</v>
+      <c r="B36" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4587,8 +4614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4600,25 +4627,25 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="19">
         <v>0.33300000000000002</v>
@@ -4626,7 +4653,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="19">
         <v>0.33300000000000002</v>
@@ -4634,7 +4661,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="19">
         <v>0.33300000000000002</v>
@@ -4642,36 +4669,36 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
       <c r="K11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" s="60" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M11" s="60"/>
       <c r="N11" s="60"/>
@@ -4684,7 +4711,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F12" s="60">
         <v>0.8</v>
@@ -4693,7 +4720,7 @@
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L12" s="60">
         <v>8</v>
@@ -4709,19 +4736,19 @@
         <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L13" s="60" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
@@ -4729,7 +4756,7 @@
     <row r="14" spans="2:14">
       <c r="C14" s="47"/>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F14" s="60">
         <v>0.5</v>
@@ -4738,7 +4765,7 @@
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L14" s="60">
         <v>12</v>
@@ -4748,57 +4775,57 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="47"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
       <c r="K26" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L26" s="60" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
@@ -4811,7 +4838,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F27" s="60">
         <v>0.7</v>
@@ -4820,7 +4847,7 @@
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
       <c r="K27" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L27" s="60">
         <v>9</v>
@@ -4836,19 +4863,19 @@
         <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="K28" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L28" s="60" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M28" s="60"/>
       <c r="N28" s="60"/>
@@ -4856,7 +4883,7 @@
     <row r="29" spans="2:14">
       <c r="C29" s="47"/>
       <c r="E29" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F29" s="60">
         <v>0.4</v>
@@ -4865,7 +4892,7 @@
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
       <c r="K29" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L29" s="60">
         <v>13</v>
@@ -4875,7 +4902,7 @@
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="2:14">
@@ -4886,12 +4913,12 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
@@ -4937,24 +4964,24 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="H4" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
@@ -5162,24 +5189,24 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
       <c r="F21" s="60"/>
       <c r="H21" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B95EE4-6812-4953-9AF7-CCB00E7238A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B151D67-5C2F-4A32-AF8F-ADFDC7F8D4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="350">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1007,19 +1007,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200px로 고정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120px 등장확률(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1272,10 +1264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*높이는 80px로 고정이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>벽 함정 추가(송곳)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1348,14 +1336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200px 등장확률(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)벽의 크기는 0초~20초까지는 120px 크기의 벽만 존재한다. 21초 이후에는 200px과 120px 크기의 벽이 랜덤 확률로 등장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)구름 벽의 크기는 200px으로 고정이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1416,10 +1396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)화면 하단 가운데에 0.8초당 150px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다. (뛰어 올랐다가 내려오는 것까지 0.8초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)0초~20초:낮배경(그라데이션은 배경이 바뀌는 첫 부분에만 적용한다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1453,6 +1429,34 @@
   </si>
   <si>
     <t>1)화면 중앙에 Round x(x는 Round별 숫자를 의미한다.) 문구가 1초동안 띄워진 후, Start 문구가 0.8초동안 띄워진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*높이는 40px로 고정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60px 등장확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100px 등장확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135px로 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면 하단 가운데에 0.8초당 200px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다. (뛰어 올랐다가 내려오는 것까지 0.8초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)60px과 100px 크기의 벽이 랜덤 확률로 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)구름 벽 또한 아래 부분을 뚫고 올라갈 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2657,7 +2661,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
@@ -2666,14 +2670,14 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="38"/>
       <c r="O12" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -2681,7 +2685,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2702,7 +2706,7 @@
       <c r="M13" s="32"/>
       <c r="N13" s="33"/>
       <c r="O13" s="53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P13" s="54"/>
       <c r="Q13" s="54"/>
@@ -2710,7 +2714,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2731,7 +2735,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="35"/>
       <c r="O14" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -2748,7 +2752,7 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -2766,7 +2770,7 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -2995,7 +2999,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3017,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3062,7 +3066,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3097,7 +3101,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3112,7 +3116,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3122,7 +3126,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3182,12 +3186,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3240,10 +3244,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
-  <dimension ref="A2:C74"/>
+  <dimension ref="A2:C75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3292,12 +3296,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3312,7 +3316,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3320,254 +3324,259 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
     <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
-        <v>96</v>
+      <c r="A38" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
     <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>259</v>
+      <c r="A54" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>340</v>
+      <c r="A59" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
-        <v>244</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>28</v>
+      <c r="A65" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
     <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>310</v>
+      <c r="A71" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3583,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:G110"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3642,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="61" t="s">
@@ -3655,7 +3664,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="7">
         <v>60</v>
@@ -3665,13 +3674,13 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="61" t="s">
-        <v>240</v>
+        <v>346</v>
       </c>
       <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="7">
         <v>70</v>
@@ -3680,12 +3689,12 @@
         <v>30</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="44" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -3712,7 +3721,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -3783,7 +3792,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -3791,10 +3800,10 @@
         <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -3802,10 +3811,10 @@
         <v>54</v>
       </c>
       <c r="C33" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D33" s="7">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -3813,10 +3822,10 @@
         <v>55</v>
       </c>
       <c r="C34" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D34" s="7">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -3881,23 +3890,23 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C48" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C49" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E49" s="10"/>
     </row>
@@ -3923,7 +3932,7 @@
         <v>48</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D54" s="10"/>
     </row>
@@ -4004,7 +4013,7 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="56" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -4012,10 +4021,10 @@
         <v>48</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -4023,10 +4032,10 @@
         <v>230</v>
       </c>
       <c r="C70" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D70" s="7">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -4034,10 +4043,10 @@
         <v>231</v>
       </c>
       <c r="C71" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D71" s="7">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="2:4">
@@ -4050,7 +4059,7 @@
         <v>67</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -4063,15 +4072,15 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C78" s="5">
         <v>10</v>
@@ -4079,12 +4088,12 @@
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C82" s="7">
         <v>100</v>
@@ -4092,7 +4101,7 @@
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C83" s="7">
         <v>100</v>
@@ -4100,19 +4109,19 @@
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="58" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:3" ht="16.5" customHeight="1"/>
     <row r="90" spans="2:3">
       <c r="B90" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="2:3">
@@ -4147,39 +4156,39 @@
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C100" s="13"/>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C101" s="13"/>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C107" s="46">
         <v>0.2</v>
@@ -4187,12 +4196,12 @@
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="58" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C110" s="7"/>
     </row>
@@ -4219,7 +4228,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4232,39 +4241,39 @@
     </row>
     <row r="6" spans="1:16">
       <c r="O6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="O7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="O8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="O9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="O11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4296,7 +4305,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4306,7 +4315,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4346,7 +4355,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4381,7 +4390,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -4399,7 +4408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4439,12 +4448,12 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -4454,17 +4463,17 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -4474,22 +4483,22 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4523,7 +4532,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -4533,12 +4542,12 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -4558,7 +4567,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -4573,7 +4582,7 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -4679,7 +4688,7 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>105</v>
@@ -4689,7 +4698,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -4698,7 +4707,7 @@
         <v>154</v>
       </c>
       <c r="L11" s="60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M11" s="60"/>
       <c r="N11" s="60"/>
@@ -4711,7 +4720,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F12" s="60">
         <v>0.8</v>
@@ -4720,7 +4729,7 @@
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L12" s="60">
         <v>8</v>
@@ -4736,19 +4745,19 @@
         <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L13" s="60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
@@ -4756,7 +4765,7 @@
     <row r="14" spans="2:14">
       <c r="C14" s="47"/>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F14" s="60">
         <v>0.5</v>
@@ -4765,7 +4774,7 @@
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L14" s="60">
         <v>12</v>
@@ -4775,7 +4784,7 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -4786,7 +4795,7 @@
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -4806,7 +4815,7 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>105</v>
@@ -4816,7 +4825,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
@@ -4825,7 +4834,7 @@
         <v>154</v>
       </c>
       <c r="L26" s="60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
@@ -4838,7 +4847,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F27" s="60">
         <v>0.7</v>
@@ -4847,7 +4856,7 @@
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
       <c r="K27" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L27" s="60">
         <v>9</v>
@@ -4863,19 +4872,19 @@
         <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="K28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L28" s="60" t="s">
         <v>285</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>287</v>
       </c>
       <c r="M28" s="60"/>
       <c r="N28" s="60"/>
@@ -4883,7 +4892,7 @@
     <row r="29" spans="2:14">
       <c r="C29" s="47"/>
       <c r="E29" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F29" s="60">
         <v>0.4</v>
@@ -4892,7 +4901,7 @@
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
       <c r="K29" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L29" s="60">
         <v>13</v>
@@ -4902,7 +4911,7 @@
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="2:14">
@@ -4972,7 +4981,7 @@
         <v>154</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
@@ -4981,7 +4990,7 @@
         <v>154</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
@@ -5189,7 +5198,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -5197,7 +5206,7 @@
         <v>154</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -5206,7 +5215,7 @@
         <v>154</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B151D67-5C2F-4A32-AF8F-ADFDC7F8D4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EA4705-839E-43A6-BF15-A3AE93EE420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
@@ -1400,10 +1400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3초에 60% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)플레이어가 답을 맞췄다면, 화면 중앙에 동그라미(O)표시를 1초동안 띄운다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1457,6 +1453,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 4)구름 벽 또한 아래 부분을 뚫고 올라갈 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5초에 60% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2419,7 +2419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3296,7 +3296,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3326,7 +3326,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3592,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:G110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3651,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="61" t="s">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G11" s="62"/>
     </row>
@@ -3689,12 +3689,12 @@
         <v>30</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -3721,7 +3721,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4355,7 +4355,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4483,22 +4483,22 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4532,7 +4532,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -4567,7 +4567,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -4938,12 +4938,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="L29:N29"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -4954,6 +4948,12 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5423,6 +5423,43 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -5432,43 +5469,6 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EA4705-839E-43A6-BF15-A3AE93EE420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17959AEB-C9CF-40AB-954B-C94FFAFB2996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="381">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,22 +140,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)스프링: 캐릭터의 점프력을 1회 2배 상승시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5)게임 진행 중 맵 상에 재화가 존재하며, 캐릭터가 해당 재화와 접촉 시 그에 해당하는 인게임 재화를 획득한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. 장애물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)벽과 구름벽은 각각 랜덤하게 배치된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,26 +156,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4)게임오버 시, 화면을 어둡게 만들며 GameOver 문구를 띄운다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템은 확률표에 따라 생성된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)화면 상단 왼쪽에 현재 점수, 현재 진행 중인 게임에서 얻는 재화의 총량이 표기된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)플레이어가 틀린 답을 고름 2)플레이어가 제한시간 안에 답을 못 고름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> -설정 버튼을 누르면 설정창이 나타나며 게임은 일시정지된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HARD 모드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*각 오브젝트들은(아이템, 장애물) 화면 최상단에서 생성된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)보호막: 캐릭터를 1회 장애물로부터 보호해준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,30 +383,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)재화는 확률표에 따라 생성된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.1 재화 수량 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재화는 항상 벽 위 중앙에 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템은 항상 벽 위 중앙에 위치한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.2 재화 생성 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 장애물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.1 장애물 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,50 +407,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)아이템과의 생성 충돌을 막기위해, 재화는 게임 시작후 1초 뒤부터 계산을 시작한다.(아이템의 계산보다 1초의 늦게 실행한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 재화 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>확률(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*TRUE = 생성, FALSE = 미생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 재화 생성 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 장애물 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2 장애물 이동 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3 장애물 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5. 화면 이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,10 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8초에 50% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5초 마다 50% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,18 +527,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어가 정답을 맞춰 각 라운드가 끝날때 재화를 획득한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 먹이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 난이도 별 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위치 별 판다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,14 +835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)화면 최상단 왼쪽에 제한시간, 현재 점수, 현재 진행 중인 게임에서 얻는 재화의 총량이 표기된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)화면 최하단 왼쪽에 설정 버튼이 표시된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2) 피한 장애물 개수에 따른 점수(캐릭터가 장애물 기준 위에 위치하는 순간 적용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -947,10 +843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)운석:랜덤한 Y축에 배치한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보너스 재화 증정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,10 +875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)캐릭터가 벽을 밟지 못하고 추락 2)캐릭터가 장애물과 충돌하여 추락 3)위로 올라가는 중인 화면 밖으로 캐릭터가 나감 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)장애물은 캐릭터의 동선을 방해한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,18 +883,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*아이템과 재화의 위치가 겹칠 경우, 아이템을 재화의 앞에 위치하도록 한다. (재화는 아이템 뒤에 가려저서 살짝 보이도록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5초에 40% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*2초내로 벽이 한번도 소환되지 않았다면 기본벽을 반드시 생성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1023,10 +903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)운석: y축 기준 위에서 아래로 이동하며 캐릭터의 동선을 방해한다. 또한 게임 시작 41초 부터 등장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)새:4초에 한번씩 등장한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1043,18 +919,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">위치: 벽 기준 1/3 지점부터 2/3 지점까지 송곳이 존재한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건: 송곳은 기본 벽에서만 생성된다. 캐릭터가 밟으면 게임오버.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송곳 등장 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>속력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1068,10 +932,6 @@
   </si>
   <si>
     <t>5+t/5(나머지 버림, t는 진행시간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요에셋: 캐릭터, 슬픈 표정 캐릭터, 뒷배경(낮,노을,밤,우주), 뒷배경 그라데이션(낮-노을, 노을-밤, 밤-우주) 벽, 구름벽, 송곳벽, 스프링, 보호막, 코인, 점수판, 재화판, 새, 운석, 설정버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1208,10 +1068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    HARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    HARD모드 변동사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1244,10 +1100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.4 장애물 크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가로(px)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1256,34 +1108,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.3 재화 크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 캐릭터 크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벽 함정 추가(송곳)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송곳 크기(px):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)벽의 가로 길이가 120px일 경우(가로x세로): 40x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)벽의 가로 길이가 300px일 경우(가로x세로): 100x55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6)게임 중간중간 나오는 친구들을 구출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9. 구출요소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1296,14 +1124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.3 재화 인정 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화는 캐릭터와 스치기만 해도 재화를 얻은 것으로 인정한다. 얻은 즉시 재화판의 재화가 올라간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8. 난이도 별 수치 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1336,14 +1156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)구름 벽의 크기는 200px으로 고정이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요에셋: 캐릭터(판다), 먹이 먹는 캐릭터, 뒷배경, 타이머, 점수판, 재화판, 설정버튼, O,X 표시(정답, 오답처리 시 필요), Round 문구, 숫자 문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)3마리의 판다가 랜덤하게 먹이를 먹는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1352,10 +1164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)매 라운드가 끝나면, 짧은 휴식시간(2초)이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각 라운드 당 먹이 먹는 속도 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1444,19 +1252,388 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)화면 하단 가운데에 0.8초당 200px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다. (뛰어 올랐다가 내려오는 것까지 0.8초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)60px과 100px 크기의 벽이 랜덤 확률로 등장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)구름 벽 또한 아래 부분을 뚫고 올라갈 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5초에 60% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    HARD모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)운석:랜덤한 y축에 배치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*구출 캐릭터 크기 100x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 에셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;송곳벽&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송곳 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8초 마다 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4초에 40% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 장애물 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 장애물 이동 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 장애물 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 장애물 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 상단 왼쪽에 현재 점수가 표기된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 송곳 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)구름 벽의 크기는 가로 135px으로 고정이다. (높이 40px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)송곳벽은 랜덤한 위치에 확률표에 따라 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)캐릭터가 송곳을 밟으면 게임오버된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)캐릭터는 송곳을 피해 벽 부분을 밟고 올라가야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)가로 60px과 100px 크기의 벽이 확률표에 따라 등장한다. (높이 40px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)송곳 벽의 크기는 기본 벽과 동일하게 가로 60px과 100px이며 확률표에 따라 등장한다. (높이 40px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)구름 벽 또한 캐릭터가 벽 아래 부분을 뚫고 올라갈 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)송곳 벽 또한 캐릭터가 벽 아래 부분을 뚫고 올라갈 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)스프링: 캐릭터의 점프력을 1회 1.8배 상승시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 1)재화는 게임오버 후 점수 환산 화면에서 정산된다. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(+추가 예정)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)운석: y축 기준 위에서 아래로 이동하며 캐릭터의 동선을 방해한다. 또한 게임 시작 61초 부터 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*운석은 게임시작 후 61초부터 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. 장애물 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(*각 징애물들은 화면 최상단에서 생성된다.)  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)게임오버 시 주변 화면을 어둡게 만들고, 화면 중앙에 GameOver 문구를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)캐릭터가 송곳벽의 송곳을 밟음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*1초내로 벽이 한번도 소환되지 않았다면, 기본벽을 반드시 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)벽의 가로 길이가 60px일 경우(가로x세로): 20x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)벽의 가로 길이가 100px일 경우(가로x세로): 33x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)매 라운드가 끝나면, 짧은 휴식시간(2초)이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)게임 진행중에 화면 하단 모서리에(위치는 랜덤이다.) 판다가 랜덤 확률로 1초동안 등장하여 플레이어의 시선을 분산시킨다. 이때 플레이어는 판다를 눌러 잡을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)화면 하단 모서리에서 판다가 랜덤 확률로 1초동안 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">게임오버시 나오는 점수 환산 화면에서 게임 점수에 따라 재화를 정산한다. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(정답 당 재화량은 추가 예정)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요에셋: 캐릭터(판다), 먹이 먹는 캐릭터, 뒷배경, 타이머, 점수판, 설정버튼, O,X 표시(정답, 오답처리 시 필요), Round 문구, 숫자 문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>필요에셋:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 캐릭터, 뒷배경(낮,노을,밤,우주), 뒷배경 그라데이션(낮-노을, 노을-밤, 밤-우주) 벽, 구름벽, 송곳벽, 스프링, 보호막, 코인, 점수판, 새, 운석, 설정버튼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 최상단 왼쪽에 제한시간, 현재 점수가 표기된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)화면 최상단 오른쪽에 설정 버튼이 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -설정 버튼을 누르면 설정창이 나타나며 게임은 일시정지된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -설정창에는 exit버튼과 restrart버튼이 존재한다. Exit버튼을 누르면 미니게임 목록 화면이 등장하며, restart버튼을 누르면 게임을 처음부터 다시 시작한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*인게임 안에서 재화판 사라짐-1/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*인게임 안에서 재화판 사라짐 -1/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 하단 판다 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 잡은 판다에 따른 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10p/마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면 하단 가운데에 0.8초당 200px만큼 일정하게 위 아래로 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다. 캐릭터가 뛰어 올랐다가 내려오는 것까지 0.8초이며, 벽을 밟았을 시에만 뛰어 오를 수 있다. (허공에서 뛸 수 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 난이도 별 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 하단 판다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1판다 위치별 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2판다 위치별 기울기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*y축 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-47도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)하단의 판다는 항상 매 라운드 시작 후 1.5초 뒤에 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1 하단 판다 생성 기본 규칙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2 하단 판다 정답 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡은 판다에 따른 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3)하단의 판다는 1.8초당 60%의 확률로 등장한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)하단 판다의 위치는 확률표에 따라 생성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)하단 판다 위치별 기울기는 확률표에 따른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)플레이어가 판다를 눌렀음이 확인됐을 경우, 판다를 잡은것으로 인정되며 판다는 0.2초마다 투명해지며 서서히 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3)플레이어가 판다가 등장하는 동안 누르지 못했더라도 별다른 패널티는 없는 것으로 한다. 판다는 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1)플레이어는 화면에 1.2초동안 존재하는 판다를 누르면 정답으로 인정한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 하단 판다 등장 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)하단의 판다는 등장하는 시간(0.5s)과 들어가는 시간(0.5s)을 합쳐 총 1.0초동안 등장한다. 이때 판다는 등장시에 0.25초마다 총 2번 이동하며 들어갈시에 0.25초마다 총2번 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12p/마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ex.판다가 왼쪽 모서리에서 등장한다면 등장시: 0.25초마다 18px씩 오른쪽으로 이동, 들어갈시: 오른쪽에서 왼쪽으로 0.25초마다 18px씩 이동) *수치는 추후에 변동될 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ex.판다가 왼쪽 모서리에서 등장한다면 등장시: 0.2초마다 12px씩 오른쪽으로 이동, 들어갈시: 오른쪽에서 왼쪽으로 0.2초마다 12px씩 이동) *수치는 추후에 변동될 수 있음</t>
+  </si>
+  <si>
+    <t>2)하단의 판다는 등장하는 시간(0.6s)과 들어가는 시간(0.6s)을 합쳐 총 1.2초동안 등장한다. 이때 판다는 등장시에 0.2초마다 총 3번 이동하며 들어갈시에 0.2초마다 총 3번 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)기본 벽 생성 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*송곳 위치: 벽 기준 1/3 지점부터 2/3 지점까지 송곳이 존재한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*높이는 65px로 고정이다. (송곳 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초에 60% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5초에 40% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)게임 중간중간 나오는 친구들을 구출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)캐릭터가 벽을 밟지 못하고 추락 2)캐릭터가 장애물과 충돌하여 추락 3)위로 올라가는 중인 화면 밖으로 캐릭터가 나감 4)송곳벽의 송곳을 밟음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 판다 등장 시간 및 점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1521,8 +1698,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1544,6 +1730,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +1899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1750,9 +1942,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1846,9 +2035,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1864,43 +2050,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2430,7 +2643,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2440,541 +2653,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="H2" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="59"/>
+      <c r="A2" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="H2" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="E6" s="20" t="s">
+      <c r="A6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="E6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="E7" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="E8" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="E9" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20" t="s">
+      <c r="I9" s="23"/>
+      <c r="J9" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="E10" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="E11" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="E7" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="E12" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="E13" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="52"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="E14" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="E15" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="E16" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="35"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="E8" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="34"/>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="35"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="E9" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23" t="s">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="35"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="E10" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="34"/>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="E22" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="23"/>
+      <c r="J23" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="35"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="E11" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="35"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="E12" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="38"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="E13" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="E14" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23" t="s">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="23"/>
+      <c r="J24" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="E15" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="23" t="s">
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="34"/>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="23"/>
+      <c r="J25" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="35"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="E16" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23" t="s">
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="34"/>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="E26" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="23"/>
+      <c r="J26" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="35"/>
-    </row>
-    <row r="17" spans="5:14">
-      <c r="E17" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="35"/>
-    </row>
-    <row r="18" spans="5:14">
-      <c r="E18" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="35"/>
-    </row>
-    <row r="19" spans="5:14">
-      <c r="E19" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="35"/>
-    </row>
-    <row r="20" spans="5:14">
-      <c r="E20" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="35"/>
-    </row>
-    <row r="21" spans="5:14">
-      <c r="E21" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="35"/>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="E22" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="35"/>
-    </row>
-    <row r="23" spans="5:14">
-      <c r="E23" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="24"/>
-      <c r="J23" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="35"/>
-    </row>
-    <row r="24" spans="5:14">
-      <c r="E24" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="24"/>
-      <c r="J24" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="35"/>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="24"/>
-      <c r="J25" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="35"/>
-    </row>
-    <row r="26" spans="5:14">
-      <c r="E26" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="24"/>
-      <c r="J26" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="38"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="37"/>
     </row>
     <row r="27" spans="5:14">
-      <c r="E27" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="24"/>
+      <c r="E27" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="5:14">
-      <c r="E28" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="24"/>
+      <c r="E28" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="5:14">
-      <c r="E29" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="24"/>
+      <c r="E29" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="5:14">
-      <c r="E30" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="24"/>
+      <c r="E30" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="5:14">
-      <c r="E31" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
+      <c r="E31" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2989,25 +3202,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C6337E-57CB-49AB-A642-E5011C88FF40}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3021,8 +3239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3061,72 +3279,73 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>305</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.5" customHeight="1">
-      <c r="A12" t="s">
-        <v>234</v>
+      <c r="A11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.5" customHeight="1"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
+      <c r="A14" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3146,7 +3365,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3171,27 +3390,32 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>316</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3244,339 +3468,347 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
-  <dimension ref="A2:C75"/>
+  <dimension ref="A2:C76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="B2" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="60"/>
+      <c r="B2" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>86</v>
+      <c r="A9" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>58</v>
+      <c r="A10" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>333</v>
+      <c r="A12" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
+      <c r="A14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>348</v>
+      <c r="A17" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
+      <c r="A19" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
-        <v>88</v>
+      <c r="A22" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
-        <v>94</v>
+      <c r="A28" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
-        <v>90</v>
+      <c r="A29" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>91</v>
+      <c r="A34" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>95</v>
+      <c r="A35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>93</v>
+      <c r="A37" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>310</v>
-      </c>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
-        <v>306</v>
+      <c r="A69" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>307</v>
+      <c r="A72" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>318</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3590,97 +3822,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
-  <dimension ref="B2:G110"/>
+  <dimension ref="B2:L104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.9140625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="23.25" customWidth="1"/>
+    <col min="12" max="12" width="24.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="60"/>
-    </row>
-    <row r="3" spans="2:7">
+    <row r="2" spans="2:12">
+      <c r="B2" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="62"/>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="8.5" customHeight="1"/>
-    <row r="9" spans="2:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="8.5" customHeight="1"/>
+    <row r="9" spans="2:12">
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>63</v>
+      </c>
+      <c r="J9" s="69"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="62"/>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="F10" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="5" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C11" s="7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11" s="62"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="F11" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="5" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C12" s="7">
         <v>70</v>
@@ -3688,522 +3935,570 @@
       <c r="D12" s="7">
         <v>30</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="44" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="F12" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" s="70"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>238</v>
+      <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="44" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B19" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="3" t="s">
-        <v>71</v>
+      <c r="C26" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="3" t="s">
-        <v>295</v>
-      </c>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>298</v>
+      <c r="B32" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="7">
-        <v>25</v>
-      </c>
-      <c r="D33" s="7">
-        <v>35</v>
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C34" s="7">
         <v>25</v>
       </c>
       <c r="D34" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="7">
+        <v>25</v>
+      </c>
+      <c r="D35" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="7">
+        <v>25</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="7">
+        <v>50</v>
+      </c>
+      <c r="D57" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="7">
+        <v>40</v>
+      </c>
+      <c r="D58" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="57"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="51">
+    <row r="79" spans="2:3">
+      <c r="B79" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="7">
+        <v>60</v>
+      </c>
+      <c r="D84" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="7">
+        <v>80</v>
+      </c>
+      <c r="D85" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H90" s="7">
+        <v>60</v>
+      </c>
+      <c r="I90" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H91" s="7">
+        <v>70</v>
+      </c>
+      <c r="I91" s="7">
         <v>30</v>
       </c>
-      <c r="D39" s="57"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="51">
-        <v>70</v>
-      </c>
-      <c r="D40" s="57"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="43" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C48" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C49" s="7">
-        <v>30</v>
-      </c>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="7">
-        <v>25</v>
-      </c>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" s="7">
-        <v>50</v>
-      </c>
-      <c r="D70" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" s="7">
-        <v>40</v>
-      </c>
-      <c r="D71" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C78" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C83" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" spans="2:3" ht="16.5" customHeight="1"/>
-    <row r="90" spans="2:3">
-      <c r="B90" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="10"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G92" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G93" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="G94" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="G95" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="B97" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="7"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="5"/>
+      <c r="B98" s="10"/>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C100" s="13"/>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" t="s">
-        <v>250</v>
-      </c>
-      <c r="C101" s="13"/>
+      <c r="B100" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="5"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" t="s">
-        <v>249</v>
-      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="13"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" t="s">
-        <v>302</v>
+      <c r="B103" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C107" s="46">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="C110" s="7"/>
+      <c r="B104" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4218,62 +4513,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="O5" s="55" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="O6" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="P6" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="O7" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="P7" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="O8" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="P8" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="O9" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="P9" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="O11" t="s">
-        <v>332</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4285,17 +4590,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" activeCellId="1" sqref="A16 I18"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4305,97 +4610,127 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
+      <c r="A17" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>37</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
+      <c r="A22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>226</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4406,209 +4741,278 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
-  <dimension ref="B2:F45"/>
+  <dimension ref="B2:F65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="60"/>
+      <c r="B2" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="4" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>142</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>137</v>
-      </c>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4621,10 +5025,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
-  <dimension ref="B2:N36"/>
+  <dimension ref="B2:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4636,81 +5040,81 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="3" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="7" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="19">
+        <v>122</v>
+      </c>
+      <c r="C5" s="18">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="19">
+        <v>123</v>
+      </c>
+      <c r="C6" s="18">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="B7" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="18">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="48" t="s">
-        <v>151</v>
+      <c r="B8" s="46" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
       <c r="K11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5">
@@ -4720,22 +5124,22 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F12" s="60">
+        <v>244</v>
+      </c>
+      <c r="F12" s="62">
         <v>0.8</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
       <c r="K12" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L12" s="60">
+        <v>244</v>
+      </c>
+      <c r="L12" s="62">
         <v>8</v>
       </c>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="5">
@@ -4745,196 +5149,288 @@
         <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+        <v>245</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
       <c r="K13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
+        <v>248</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="C14" s="47"/>
+      <c r="C14" s="45"/>
       <c r="E14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="60">
+        <v>233</v>
+      </c>
+      <c r="F14" s="62">
         <v>0.5</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
       <c r="K14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L14" s="60">
+        <v>238</v>
+      </c>
+      <c r="L14" s="62">
         <v>12</v>
       </c>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="47"/>
-    </row>
-    <row r="19" spans="2:14">
+        <v>129</v>
+      </c>
+      <c r="C18" s="45"/>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="K26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L26" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="54">
+        <v>0.33</v>
+      </c>
+      <c r="C25" s="54">
+        <v>0.33</v>
+      </c>
+      <c r="D25" s="54">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="K36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L36" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="5">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C37" s="7">
         <v>40</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F27" s="60">
+      <c r="E37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="63">
         <v>0.7</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="K27" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L27" s="60">
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="64"/>
+      <c r="K37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" s="63">
         <v>9</v>
       </c>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="5">
+      <c r="M37" s="65"/>
+      <c r="N37" s="64"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="5">
         <v>2</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C38" s="7">
         <v>60</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="K28" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="C29" s="47"/>
-      <c r="E29" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F29" s="60">
+      <c r="E38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="64"/>
+      <c r="K38" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L38" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="M38" s="65"/>
+      <c r="N38" s="64"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="C39" s="45"/>
+      <c r="E39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="63">
         <v>0.4</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="K29" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L29" s="60">
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="64"/>
+      <c r="K39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L39" s="63">
         <v>13</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="D32" s="47"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="D33" s="47"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="45"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="C36" s="47"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="64"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="E40" s="43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="D42" s="45"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43" s="45"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C46" s="45"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="67" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4942,18 +5438,18 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="L14:N14"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="L39:N39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4965,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F322FCA-EB7F-4F34-8688-918A5336FE99}">
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="75" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:F30"/>
     </sheetView>
   </sheetViews>
@@ -4973,453 +5469,453 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="H4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="63">
         <v>0.8</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="62"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="64"/>
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="63">
         <v>8</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="62"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="63">
         <v>0.8</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="62"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="64"/>
       <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="63">
         <v>8</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="50">
+      <c r="B7" s="48">
         <v>3</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="63">
         <v>0.7</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="62"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="64"/>
       <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="63">
         <v>9</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="63">
         <v>0.7</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="62"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="64"/>
       <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="63">
         <v>9</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="51">
+      <c r="B9" s="49">
         <v>5</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="63">
         <v>0.7</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="62"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="64"/>
       <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="63">
         <v>9</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="62"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="64"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="51">
+      <c r="B10" s="49">
         <v>6</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="63">
         <v>0.6</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="62"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="64"/>
       <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="63">
         <v>10</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="51">
+      <c r="B11" s="49">
         <v>7</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="63">
         <v>0.6</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="62"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="64"/>
       <c r="H11" s="7">
         <v>7</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="63">
         <v>10</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="51">
+      <c r="B12" s="49">
         <v>8</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="63">
         <v>0.6</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="62"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="64"/>
       <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="63">
         <v>10</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="51">
+      <c r="B13" s="49">
         <v>9</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="63">
         <v>0.5</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="62"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="64"/>
       <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="63">
         <v>11</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="2:11">
       <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="63">
         <v>11</v>
       </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="2:11">
       <c r="H15" s="7">
         <v>11</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="63">
         <v>11</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="62"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" spans="2:11">
       <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="63">
         <v>12</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="62"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="64"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="H21" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="63">
         <v>0.7</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="62"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="64"/>
       <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="63">
         <v>9</v>
       </c>
-      <c r="J22" s="64"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="63">
         <v>0.7</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="62"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="64"/>
       <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="63">
         <v>9</v>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="50">
+      <c r="B24" s="48">
         <v>3</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="63">
         <v>0.6</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="62"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="64"/>
       <c r="H24" s="7">
         <v>3</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="63">
         <v>10</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="7">
         <v>4</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="63">
         <v>0.6</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="62"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="64"/>
       <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="63">
         <v>10</v>
       </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="62"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="51">
+      <c r="B26" s="49">
         <v>5</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="63">
         <v>0.6</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="62"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="64"/>
       <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="I26" s="61">
+      <c r="I26" s="63">
         <v>10</v>
       </c>
-      <c r="J26" s="64"/>
-      <c r="K26" s="62"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="51">
+      <c r="B27" s="49">
         <v>6</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="63">
         <v>0.5</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="64"/>
       <c r="H27" s="7">
         <v>6</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="63">
         <v>11</v>
       </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="62"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="51">
+      <c r="B28" s="49">
         <v>7</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="63">
         <v>0.5</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="62"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="64"/>
       <c r="H28" s="7">
         <v>7</v>
       </c>
-      <c r="I28" s="61">
+      <c r="I28" s="63">
         <v>11</v>
       </c>
-      <c r="J28" s="64"/>
-      <c r="K28" s="62"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="51">
+      <c r="B29" s="49">
         <v>8</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="63">
         <v>0.5</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="62"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="64"/>
       <c r="H29" s="7">
         <v>8</v>
       </c>
-      <c r="I29" s="61">
+      <c r="I29" s="63">
         <v>11</v>
       </c>
-      <c r="J29" s="64"/>
-      <c r="K29" s="62"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="64"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="51">
+      <c r="B30" s="49">
         <v>9</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="63">
         <v>0.4</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="62"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="64"/>
       <c r="H30" s="7">
         <v>9</v>
       </c>
-      <c r="I30" s="61">
+      <c r="I30" s="63">
         <v>12</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="62"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="2:11">
       <c r="H31" s="7">
         <v>10</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31" s="63">
         <v>12</v>
       </c>
-      <c r="J31" s="64"/>
-      <c r="K31" s="62"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" spans="2:11">
       <c r="H32" s="7">
         <v>11</v>
       </c>
-      <c r="I32" s="61">
+      <c r="I32" s="63">
         <v>12</v>
       </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="62"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" spans="8:11">
       <c r="H33" s="7">
         <v>12</v>
       </c>
-      <c r="I33" s="61">
+      <c r="I33" s="63">
         <v>13</v>
       </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="62"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17959AEB-C9CF-40AB-954B-C94FFAFB2996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A7878-EEBA-4BD6-8891-CEE23C5E2BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="389">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,10 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각 라운드 당 먹이를 먹는 마리 수 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미니게임 1, 2, 4번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1161,10 +1157,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2)라운드가 끝난 후, 만약 플레이어가 정답을 맞췄다면 휴식시간을 4번(2초의 휴식) 적용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 라운드 당 먹이 먹는 속도 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1445,10 +1437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필요에셋: 캐릭터(판다), 먹이 먹는 캐릭터, 뒷배경, 타이머, 점수판, 설정버튼, O,X 표시(정답, 오답처리 시 필요), Round 문구, 숫자 문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>필요에셋:</t>
     </r>
@@ -1466,10 +1454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)화면 최상단 왼쪽에 제한시간, 현재 점수가 표기된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2)화면 최상단 오른쪽에 설정 버튼이 표시된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1594,13 +1578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(ex.판다가 왼쪽 모서리에서 등장한다면 등장시: 0.25초마다 18px씩 오른쪽으로 이동, 들어갈시: 오른쪽에서 왼쪽으로 0.25초마다 18px씩 이동) *수치는 추후에 변동될 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(ex.판다가 왼쪽 모서리에서 등장한다면 등장시: 0.2초마다 12px씩 오른쪽으로 이동, 들어갈시: 오른쪽에서 왼쪽으로 0.2초마다 12px씩 이동) *수치는 추후에 변동될 수 있음</t>
-  </si>
-  <si>
     <t>2)하단의 판다는 등장하는 시간(0.6s)과 들어가는 시간(0.6s)을 합쳐 총 1.2초동안 등장한다. 이때 판다는 등장시에 0.2초마다 총 3번 이동하며 들어갈시에 0.2초마다 총 3번 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1633,7 +1610,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하단 판다 등장 시간 및 점수</t>
+    <t>1)각 라운드 당 먹이를 먹는 마리 수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)각 라운드 당 먹이 먹는 속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)보너스 재화 증정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)하단 판다 등장 시간 및 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 최상단 왼쪽에 현재 점수판이 표기된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3)화면 상단(현재 점수판, 설정 버튼 밑)에 제한 시간이 바 형태로 표시된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요에셋: 캐릭터(판다), 먹이 먹는 캐릭터, 뒷배경, 타이머 바, 점수판, 설정버튼, O,X 표시(정답, 오답처리 시 필요), Round 문구, 숫자 문구, Start 문구, 하단 판다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)타이머 바는 점수판과 설정 버튼 기준 아래에 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)타이머 바의 길이는 (남은 제한시간)/(해당 판의 제한시간)의 비율로 설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)타이머 바는 시작 시 붉은 색으로 차있으며 남은 제한시간의 비율에 따라 오른쪽에서 왼쪽방향으로 줄어든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 제한시간 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)제한시간은 타이머 바 형태로 상단에 가로로 긴 직사각형 형태로 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ex.판다가 왼쪽 모서리에서 등장한다면 등장시: 0.2초마다 48px씩 오른쪽으로 이동, 들어갈시: 오른쪽에서 왼쪽으로 0.2초마다 48px씩 이동) *수치는 추후에 변동될 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ex.판다가 왼쪽 모서리에서 등장한다면 등장시: 0.25초마다 72px씩 오른쪽으로 이동, 들어갈시: 오른쪽에서 왼쪽으로 0.25초마다 72px씩 이동) *수치는 추후에 변동될 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*타이버판 타이머바로 대체 -1/29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1899,7 +1932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2083,6 +2116,12 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,25 +2134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2653,36 +2677,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="H2" s="61" t="s">
+      <c r="B2" s="63"/>
+      <c r="H2" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2700,23 +2724,23 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="E6" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
       <c r="N6" s="32"/>
       <c r="O6" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
@@ -2729,23 +2753,23 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="E7" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="34"/>
       <c r="O7" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -2758,23 +2782,23 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="E8" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="23"/>
       <c r="H8" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="34"/>
       <c r="O8" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -2787,23 +2811,23 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="E9" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="23"/>
       <c r="H9" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="34"/>
       <c r="O9" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -2816,23 +2840,23 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="E10" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="23"/>
       <c r="H10" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="34"/>
       <c r="O10" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
@@ -2845,23 +2869,23 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="E11" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="23"/>
       <c r="H11" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="34"/>
       <c r="O11" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -2874,23 +2898,23 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="E12" s="25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="37"/>
       <c r="O12" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -2898,28 +2922,28 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="E13" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
       <c r="H13" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="32"/>
       <c r="O13" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
@@ -2927,28 +2951,28 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="E14" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="23"/>
       <c r="H14" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="34"/>
       <c r="O14" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -2956,16 +2980,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="E15" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="23"/>
       <c r="H15" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -2974,16 +2998,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="E16" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="23"/>
       <c r="H16" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -2992,16 +3016,16 @@
     </row>
     <row r="17" spans="5:14">
       <c r="E17" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="23"/>
       <c r="H17" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -3010,16 +3034,16 @@
     </row>
     <row r="18" spans="5:14">
       <c r="E18" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="23"/>
       <c r="H18" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -3028,16 +3052,16 @@
     </row>
     <row r="19" spans="5:14">
       <c r="E19" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="23"/>
       <c r="H19" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -3046,16 +3070,16 @@
     </row>
     <row r="20" spans="5:14">
       <c r="E20" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="23"/>
       <c r="H20" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -3064,16 +3088,16 @@
     </row>
     <row r="21" spans="5:14">
       <c r="E21" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="23"/>
       <c r="H21" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -3082,16 +3106,16 @@
     </row>
     <row r="22" spans="5:14">
       <c r="E22" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="23"/>
       <c r="H22" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -3100,12 +3124,12 @@
     </row>
     <row r="23" spans="5:14">
       <c r="E23" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="23"/>
       <c r="J23" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -3114,12 +3138,12 @@
     </row>
     <row r="24" spans="5:14">
       <c r="E24" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="23"/>
       <c r="J24" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -3128,12 +3152,12 @@
     </row>
     <row r="25" spans="5:14">
       <c r="E25" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="23"/>
       <c r="J25" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -3142,12 +3166,12 @@
     </row>
     <row r="26" spans="5:14">
       <c r="E26" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="23"/>
       <c r="J26" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
@@ -3156,35 +3180,35 @@
     </row>
     <row r="27" spans="5:14">
       <c r="E27" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="5:14">
       <c r="E28" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="5:14">
       <c r="E29" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="5:14">
       <c r="E30" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="5:14">
       <c r="E31" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
@@ -3202,17 +3226,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C6337E-57CB-49AB-A642-E5011C88FF40}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3225,7 +3249,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>343</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3239,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3279,7 +3308,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3289,7 +3318,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" customHeight="1"/>
@@ -3300,7 +3329,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3310,17 +3339,17 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3330,12 +3359,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3345,7 +3374,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3365,7 +3394,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3395,27 +3424,27 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3470,17 +3499,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
   <dimension ref="A2:C76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView showGridLines="0" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
@@ -3515,12 +3544,12 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3535,7 +3564,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3545,37 +3574,37 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3600,7 +3629,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -3610,7 +3639,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3645,7 +3674,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3653,7 +3682,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3668,7 +3697,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -3678,12 +3707,12 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -3693,12 +3722,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -3713,52 +3742,52 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -3778,37 +3807,37 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3824,7 +3853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:L104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
@@ -3843,10 +3872,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="8" t="s">
@@ -3883,32 +3912,30 @@
       <c r="F9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
+      <c r="G10" s="66"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="7">
         <v>50</v>
@@ -3917,17 +3944,15 @@
         <v>50</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="F11" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" s="7">
         <v>70</v>
@@ -3936,19 +3961,14 @@
         <v>30</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
+        <v>292</v>
+      </c>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3" t="s">
@@ -3974,7 +3994,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -3985,15 +4005,15 @@
         <v>46</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
+        <v>327</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
@@ -4026,7 +4046,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -4049,7 +4069,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -4057,10 +4077,10 @@
         <v>42</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -4087,12 +4107,12 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -4101,13 +4121,13 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" s="7">
         <v>25</v>
@@ -4116,7 +4136,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C42" s="7">
         <v>25</v>
@@ -4124,12 +4144,12 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -4142,7 +4162,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>73</v>
@@ -4150,15 +4170,15 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -4171,15 +4191,15 @@
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>74</v>
@@ -4187,7 +4207,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -4195,15 +4215,15 @@
         <v>42</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C57" s="7">
         <v>50</v>
@@ -4214,7 +4234,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" s="7">
         <v>40</v>
@@ -4233,7 +4253,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -4246,15 +4266,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C65" s="5">
         <v>10</v>
@@ -4262,12 +4282,12 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C68" s="7">
         <v>100</v>
@@ -4275,7 +4295,7 @@
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C69" s="7">
         <v>100</v>
@@ -4283,23 +4303,23 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -4327,15 +4347,15 @@
         <v>61</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84" s="7">
         <v>60</v>
@@ -4346,7 +4366,7 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C85" s="7">
         <v>80</v>
@@ -4357,7 +4377,7 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="16.5" customHeight="1">
@@ -4365,7 +4385,7 @@
         <v>59</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -4382,10 +4402,10 @@
         <v>61</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -4396,10 +4416,10 @@
         <v>46</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H90" s="7">
         <v>60</v>
@@ -4416,10 +4436,10 @@
         <v>46</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H91" s="7">
         <v>70</v>
@@ -4430,34 +4450,34 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G93" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="2:9">
       <c r="G94" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="G95" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -4467,7 +4487,7 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C97" s="7"/>
     </row>
@@ -4476,12 +4496,12 @@
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C100" s="5"/>
     </row>
@@ -4491,12 +4511,12 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104" s="7"/>
     </row>
@@ -4515,7 +4535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4523,7 +4543,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4536,49 +4556,49 @@
     </row>
     <row r="5" spans="1:16">
       <c r="O5" s="55" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="O6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="O7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="O8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="O9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="O11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4590,10 +4610,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4610,7 +4630,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4620,12 +4640,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4645,12 +4665,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4660,77 +4680,82 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>199</v>
+      <c r="A30" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -4741,19 +4766,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
-  <dimension ref="B2:F65"/>
+  <dimension ref="B2:F64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
@@ -4783,12 +4808,12 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -4798,17 +4823,17 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -4818,22 +4843,22 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4867,7 +4892,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -4877,12 +4902,12 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -4902,7 +4927,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -4917,7 +4942,7 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -4927,7 +4952,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -4945,74 +4970,90 @@
         <v>115</v>
       </c>
     </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>344</v>
+      <c r="B47" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
-        <v>358</v>
+      <c r="B48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
-        <v>357</v>
+      <c r="B49" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>371</v>
+      <c r="B50" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4" t="s">
-        <v>361</v>
+      <c r="B52" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
-        <v>362</v>
+      <c r="B53" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="4" t="s">
-        <v>363</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
-        <v>359</v>
+      <c r="B56" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>366</v>
+      <c r="B57" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="4" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="3"/>
+      <c r="B64" s="4" t="s">
+        <v>361</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5027,8 +5068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
   <dimension ref="B2:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5092,7 +5133,7 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>90</v>
@@ -5101,20 +5142,20 @@
       <c r="E11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+      <c r="F11" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="K11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L11" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
+      <c r="L11" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5">
@@ -5124,22 +5165,22 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="62">
+        <v>243</v>
+      </c>
+      <c r="F12" s="64">
         <v>0.8</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="K12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L12" s="62">
+        <v>243</v>
+      </c>
+      <c r="L12" s="64">
         <v>8</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="5">
@@ -5149,46 +5190,46 @@
         <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
+        <v>244</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
       <c r="K13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
+        <v>247</v>
+      </c>
+      <c r="L13" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" s="45"/>
       <c r="E14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F14" s="62">
+        <v>232</v>
+      </c>
+      <c r="F14" s="64">
         <v>0.5</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="K14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L14" s="62">
+        <v>237</v>
+      </c>
+      <c r="L14" s="64">
         <v>12</v>
       </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5199,17 +5240,17 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -5217,7 +5258,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>124</v>
@@ -5241,7 +5282,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="57" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
@@ -5251,7 +5292,7 @@
         <v>122</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>124</v>
@@ -5259,23 +5300,23 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="58" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="42" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="2:14">
@@ -5290,7 +5331,7 @@
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>90</v>
@@ -5299,20 +5340,20 @@
       <c r="E36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
+      <c r="F36" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
       <c r="K36" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L36" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
+      <c r="L36" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="5">
@@ -5322,22 +5363,22 @@
         <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F37" s="63">
+        <v>243</v>
+      </c>
+      <c r="F37" s="65">
         <v>0.7</v>
       </c>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="64"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="66"/>
       <c r="K37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L37" s="63">
+        <v>243</v>
+      </c>
+      <c r="L37" s="65">
         <v>9</v>
       </c>
-      <c r="M37" s="65"/>
-      <c r="N37" s="64"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="66"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="5">
@@ -5347,46 +5388,46 @@
         <v>60</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="66"/>
+      <c r="K38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="64"/>
-      <c r="K38" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L38" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="M38" s="65"/>
-      <c r="N38" s="64"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="66"/>
     </row>
     <row r="39" spans="2:14">
       <c r="C39" s="45"/>
       <c r="E39" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F39" s="63">
+        <v>232</v>
+      </c>
+      <c r="F39" s="65">
         <v>0.4</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="64"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="66"/>
       <c r="K39" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L39" s="63">
+        <v>237</v>
+      </c>
+      <c r="L39" s="65">
         <v>13</v>
       </c>
-      <c r="M39" s="65"/>
-      <c r="N39" s="64"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="66"/>
     </row>
     <row r="40" spans="2:14">
       <c r="E40" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="2:14">
@@ -5394,39 +5435,39 @@
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D43" s="45"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="2:14">
       <c r="B45" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C46" s="45"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="67" t="s">
-        <v>369</v>
+      <c r="B47" s="61" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -5434,6 +5475,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="L39:N39"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -5444,12 +5491,6 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="L39:N39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5461,7 +5502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F322FCA-EB7F-4F34-8688-918A5336FE99}">
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="75" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:F30"/>
     </sheetView>
   </sheetViews>
@@ -5476,486 +5517,449 @@
       <c r="B4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="H4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="I4" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="65">
         <v>0.8</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="64"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="66"/>
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="65">
         <v>8</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="64"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="65">
         <v>0.8</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="64"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="66"/>
       <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="65">
         <v>8</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="64"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="48">
         <v>3</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="65">
         <v>0.7</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="64"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="66"/>
       <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="65">
         <v>9</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="64"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="65">
         <v>0.7</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="64"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="66"/>
       <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="65">
         <v>9</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="64"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="49">
         <v>5</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="65">
         <v>0.7</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="64"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="66"/>
       <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="65">
         <v>9</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="64"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="49">
         <v>6</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="65">
         <v>0.6</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="64"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="66"/>
       <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="65">
         <v>10</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="64"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="49">
         <v>7</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="65">
         <v>0.6</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="66"/>
       <c r="H11" s="7">
         <v>7</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="65">
         <v>10</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="64"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="49">
         <v>8</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="65">
         <v>0.6</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="64"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66"/>
       <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="65">
         <v>10</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="64"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="49">
         <v>9</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="65">
         <v>0.5</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="64"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="66"/>
       <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="65">
         <v>11</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11">
       <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="65">
         <v>11</v>
       </c>
-      <c r="J14" s="65"/>
-      <c r="K14" s="64"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="2:11">
       <c r="H15" s="7">
         <v>11</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="65">
         <v>11</v>
       </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="64"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="66"/>
     </row>
     <row r="16" spans="2:11">
       <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="65">
         <v>12</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="64"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
+      <c r="C21" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
       <c r="H21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="I21" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="65">
         <v>0.7</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="64"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="66"/>
       <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="65">
         <v>9</v>
       </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="64"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="65">
         <v>0.7</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="64"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="66"/>
       <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="65">
         <v>9</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="64"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="48">
         <v>3</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="65">
         <v>0.6</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="64"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="66"/>
       <c r="H24" s="7">
         <v>3</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="65">
         <v>10</v>
       </c>
-      <c r="J24" s="65"/>
-      <c r="K24" s="64"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="7">
         <v>4</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="65">
         <v>0.6</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="64"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="66"/>
       <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="65">
         <v>10</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="64"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="49">
         <v>5</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="65">
         <v>0.6</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="64"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="66"/>
       <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="65">
         <v>10</v>
       </c>
-      <c r="J26" s="65"/>
-      <c r="K26" s="64"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="49">
         <v>6</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="65">
         <v>0.5</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="64"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="66"/>
       <c r="H27" s="7">
         <v>6</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="65">
         <v>11</v>
       </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="64"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="66"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="49">
         <v>7</v>
       </c>
-      <c r="C28" s="63">
+      <c r="C28" s="65">
         <v>0.5</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="66"/>
       <c r="H28" s="7">
         <v>7</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="65">
         <v>11</v>
       </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="64"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="66"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="49">
         <v>8</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="65">
         <v>0.5</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="64"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="66"/>
       <c r="H29" s="7">
         <v>8</v>
       </c>
-      <c r="I29" s="63">
+      <c r="I29" s="65">
         <v>11</v>
       </c>
-      <c r="J29" s="65"/>
-      <c r="K29" s="64"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="66"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="49">
         <v>9</v>
       </c>
-      <c r="C30" s="63">
+      <c r="C30" s="65">
         <v>0.4</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="64"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="66"/>
       <c r="H30" s="7">
         <v>9</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="65">
         <v>12</v>
       </c>
-      <c r="J30" s="65"/>
-      <c r="K30" s="64"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="66"/>
     </row>
     <row r="31" spans="2:11">
       <c r="H31" s="7">
         <v>10</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="65">
         <v>12</v>
       </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="64"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="2:11">
       <c r="H32" s="7">
         <v>11</v>
       </c>
-      <c r="I32" s="63">
+      <c r="I32" s="65">
         <v>12</v>
       </c>
-      <c r="J32" s="65"/>
-      <c r="K32" s="64"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="8:11">
       <c r="H33" s="7">
         <v>12</v>
       </c>
-      <c r="I33" s="63">
+      <c r="I33" s="65">
         <v>13</v>
       </c>
-      <c r="J33" s="65"/>
-      <c r="K33" s="64"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -5965,6 +5969,43 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A7878-EEBA-4BD6-8891-CEE23C5E2BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B3B8A2-631B-41D7-ADA3-27547093CFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="390">
   <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -951,10 +951,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  *중첩 횟수 제한: 보호막의 무한 중첩을 방지하기 위해, 보호막을 사용하지 못하고 보호막 아이템을 획득했을 경우, 보호막을 중첩하지 않는다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)플레이어가 답을 맞췄다면, 다음 라운드로 넘어간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1228,22 +1224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*높이는 40px로 고정이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60px 등장확률(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100px 등장확률(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135px로 고정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5초에 60% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1256,10 +1236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*구출 캐릭터 크기 100x100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용 에셋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1308,10 +1284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)구름 벽의 크기는 가로 135px으로 고정이다. (높이 40px)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)송곳벽은 랜덤한 위치에 확률표에 따라 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1321,14 +1293,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 3)캐릭터는 송곳을 피해 벽 부분을 밟고 올라가야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2)가로 60px과 100px 크기의 벽이 확률표에 따라 등장한다. (높이 40px)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)송곳 벽의 크기는 기본 벽과 동일하게 가로 60px과 100px이며 확률표에 따라 등장한다. (높이 40px)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1399,14 +1363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1)벽의 가로 길이가 60px일 경우(가로x세로): 20x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)벽의 가로 길이가 100px일 경우(가로x세로): 33x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 4)매 라운드가 끝나면, 짧은 휴식시간(2초)이 존재한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1590,10 +1546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*높이는 65px로 고정이다. (송곳 포함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1초에 60% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1667,6 +1619,58 @@
   </si>
   <si>
     <t>*타이버판 타이머바로 대체 -1/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150px 등장확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200px 등장확률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*높이는 50px로 고정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160px로 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*높이는 50px로 고정이다. (송곳 불포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*높이는 64px로 고정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*구출 캐릭터 크기 78x78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108(직사각형 기준)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)가로 150px과 200px 크기의 벽이 확률표에 따라 등장한다. (높이 50px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)구름 벽의 크기는 가로 160px으로 고정이다. (높이 50px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)송곳 벽의 크기는 기본 벽과 동일하게 가로 150px과 200px이며 확률표에 따라 등장한다. (높이 50px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운석1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  *중첩 횟수 제한: 보호막의 무한 중첩을 방지하기 위해 보호막을 사용하지 못하고 보호막 아이템을 획득했을 경우, 보호막을 중첩하지 않는다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1932,7 +1936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2139,6 +2143,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2898,7 +2905,7 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="E12" s="25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
@@ -2907,14 +2914,14 @@
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="35" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="37"/>
       <c r="O12" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -2922,7 +2929,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -2943,7 +2950,7 @@
       <c r="M13" s="31"/>
       <c r="N13" s="32"/>
       <c r="O13" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
@@ -2951,7 +2958,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2972,7 +2979,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="34"/>
       <c r="O14" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -2989,7 +2996,7 @@
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -3007,7 +3014,7 @@
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -3236,7 +3243,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3249,12 +3256,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3269,7 +3276,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3308,7 +3315,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3318,7 +3325,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" customHeight="1"/>
@@ -3329,7 +3336,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3339,17 +3346,17 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3374,7 +3381,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3439,12 +3446,12 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3500,7 +3507,7 @@
   <dimension ref="A2:C76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3544,12 +3551,12 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3564,7 +3571,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3574,37 +3581,37 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3629,7 +3636,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -3639,7 +3646,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>226</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3674,7 +3681,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3682,7 +3689,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3697,7 +3704,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -3712,7 +3719,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -3767,22 +3774,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -3807,37 +3814,37 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3853,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:L104"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3919,10 +3926,10 @@
         <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="65" t="s">
@@ -3945,7 +3952,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="65" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="G11" s="66"/>
       <c r="J11" s="10"/>
@@ -3961,13 +3968,13 @@
         <v>30</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>292</v>
+        <v>382</v>
       </c>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="43" t="s">
-        <v>292</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -3994,11 +4001,11 @@
         <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -4010,7 +4017,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="42" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -4046,7 +4053,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -4069,7 +4076,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -4077,10 +4084,10 @@
         <v>42</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -4088,10 +4095,10 @@
         <v>48</v>
       </c>
       <c r="C34" s="7">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D34" s="7">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -4099,20 +4106,20 @@
         <v>49</v>
       </c>
       <c r="C35" s="7">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D35" s="7">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -4144,12 +4151,12 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="43" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -4178,7 +4185,7 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -4207,7 +4214,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="53" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -4215,10 +4222,10 @@
         <v>42</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -4226,21 +4233,21 @@
         <v>202</v>
       </c>
       <c r="C57" s="7">
-        <v>50</v>
-      </c>
-      <c r="D57" s="7">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="7" t="s">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="C58" s="7">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D58" s="7">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -4282,44 +4289,44 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C68" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="43" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -4347,10 +4354,10 @@
         <v>61</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -4377,7 +4384,7 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="43" t="s">
-        <v>292</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="16.5" customHeight="1">
@@ -4385,7 +4392,7 @@
         <v>59</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -4402,10 +4409,10 @@
         <v>61</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -4416,7 +4423,7 @@
         <v>46</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>209</v>
@@ -4436,7 +4443,7 @@
         <v>46</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>210</v>
@@ -4450,34 +4457,24 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="42" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G93" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="G94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="G95" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -4511,12 +4508,12 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C104" s="7"/>
     </row>
@@ -4535,7 +4532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657CE5-EC66-4B9C-95A3-5B9E5E1633A9}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4543,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4556,49 +4553,49 @@
     </row>
     <row r="5" spans="1:16">
       <c r="O5" s="55" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="O6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="O7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="O8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="O9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="O11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4612,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4630,7 +4627,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4640,12 +4637,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4665,12 +4662,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4680,12 +4677,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4695,12 +4692,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4720,12 +4717,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4740,22 +4737,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4768,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC97E44-C230-4745-ACAC-223D01AA6228}">
   <dimension ref="B2:F64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4808,12 +4805,12 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -4823,17 +4820,17 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -4843,22 +4840,22 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4892,7 +4889,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -4902,12 +4899,12 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -4927,7 +4924,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -4942,7 +4939,7 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -4952,7 +4949,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -4972,87 +4969,87 @@
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="4" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5068,7 +5065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE1852-EDD9-4777-9A71-5A59AF7B4A2A}">
   <dimension ref="B2:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
@@ -5133,7 +5130,7 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>90</v>
@@ -5143,7 +5140,7 @@
         <v>130</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
@@ -5152,7 +5149,7 @@
         <v>130</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64"/>
@@ -5165,7 +5162,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F12" s="64">
         <v>0.8</v>
@@ -5174,7 +5171,7 @@
       <c r="H12" s="64"/>
       <c r="I12" s="64"/>
       <c r="K12" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L12" s="64">
         <v>8</v>
@@ -5190,19 +5187,19 @@
         <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G13" s="67"/>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L13" s="64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M13" s="64"/>
       <c r="N13" s="64"/>
@@ -5210,7 +5207,7 @@
     <row r="14" spans="2:14">
       <c r="C14" s="45"/>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F14" s="64">
         <v>0.5</v>
@@ -5219,7 +5216,7 @@
       <c r="H14" s="64"/>
       <c r="I14" s="64"/>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L14" s="64">
         <v>12</v>
@@ -5229,7 +5226,7 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5240,17 +5237,17 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -5258,7 +5255,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>124</v>
@@ -5282,7 +5279,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="57" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
@@ -5292,7 +5289,7 @@
         <v>122</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>124</v>
@@ -5300,23 +5297,23 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="58" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="42" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="2:14">
@@ -5331,7 +5328,7 @@
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>90</v>
@@ -5341,7 +5338,7 @@
         <v>130</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G36" s="64"/>
       <c r="H36" s="64"/>
@@ -5350,7 +5347,7 @@
         <v>130</v>
       </c>
       <c r="L36" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
@@ -5363,7 +5360,7 @@
         <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F37" s="65">
         <v>0.7</v>
@@ -5372,7 +5369,7 @@
       <c r="H37" s="68"/>
       <c r="I37" s="66"/>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L37" s="65">
         <v>9</v>
@@ -5388,19 +5385,19 @@
         <v>60</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F38" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G38" s="68"/>
       <c r="H38" s="68"/>
       <c r="I38" s="66"/>
       <c r="K38" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L38" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M38" s="68"/>
       <c r="N38" s="66"/>
@@ -5408,7 +5405,7 @@
     <row r="39" spans="2:14">
       <c r="C39" s="45"/>
       <c r="E39" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F39" s="65">
         <v>0.4</v>
@@ -5417,7 +5414,7 @@
       <c r="H39" s="68"/>
       <c r="I39" s="66"/>
       <c r="K39" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L39" s="65">
         <v>13</v>
@@ -5427,7 +5424,7 @@
     </row>
     <row r="40" spans="2:14">
       <c r="E40" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:14">
@@ -5435,29 +5432,29 @@
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D43" s="45"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="2:14">
       <c r="B45" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C46" s="45"/>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="61" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -5518,7 +5515,7 @@
         <v>130</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
@@ -5527,7 +5524,7 @@
         <v>130</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="64"/>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -5743,7 +5740,7 @@
         <v>130</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
@@ -5752,7 +5749,7 @@
         <v>130</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J21" s="64"/>
       <c r="K21" s="64"/>

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B3B8A2-631B-41D7-ADA3-27547093CFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB19F523-6C22-4F39-8965-E5587BA1DB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
@@ -879,10 +879,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5초에 40% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,14 +1120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6초에 50% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5초에 50% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 8)구출 캐릭터는 각각 랜덤하게 배치된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1224,10 +1212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5초에 60% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    HARD모드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1249,10 +1233,6 @@
   </si>
   <si>
     <t>8초 마다 50% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4초에 40% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1546,14 +1526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1초에 60% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5초에 40% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)게임 중간중간 나오는 친구들을 구출한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1671,6 +1643,34 @@
   </si>
   <si>
     <t xml:space="preserve">  *중첩 횟수 제한: 보호막의 무한 중첩을 방지하기 위해 보호막을 사용하지 못하고 보호막 아이템을 획득했을 경우, 보호막을 중첩하지 않는다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*200px내로 벽이 한번도 소환되지 않았다면, 기본벽을 반드시 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6초에 10% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5초에 60% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5초에 40% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5초에 60% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초에 40% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초에 10% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2126,6 +2126,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2143,9 +2146,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2663,7 +2663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2684,32 +2684,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="H2" s="63" t="s">
+      <c r="B2" s="64"/>
+      <c r="H2" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="63"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -2905,7 +2905,7 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="E12" s="25" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
@@ -2914,14 +2914,14 @@
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="37"/>
       <c r="O12" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -2950,7 +2950,7 @@
       <c r="M13" s="31"/>
       <c r="N13" s="32"/>
       <c r="O13" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2979,7 +2979,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="34"/>
       <c r="O14" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -3243,7 +3243,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3256,12 +3256,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3325,7 +3325,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" customHeight="1"/>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3346,17 +3346,17 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3371,7 +3371,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3381,7 +3381,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3441,17 +3441,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3506,17 +3506,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
   <dimension ref="A2:C76"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="6" t="s">
@@ -3551,12 +3551,12 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3571,7 +3571,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3581,37 +3581,37 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3636,7 +3636,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -3646,7 +3646,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3681,7 +3681,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3689,7 +3689,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3704,7 +3704,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -3719,7 +3719,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -3729,12 +3729,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -3749,52 +3749,52 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -3814,37 +3814,37 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3860,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:L104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3879,10 +3879,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="8" t="s">
@@ -3926,23 +3926,23 @@
         <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="66"/>
+      <c r="G10" s="67"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="7">
         <v>50</v>
@@ -3951,15 +3951,15 @@
         <v>50</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="G11" s="66"/>
+      <c r="F11" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" s="67"/>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="7">
         <v>70</v>
@@ -3968,13 +3968,13 @@
         <v>30</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="43" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -4001,7 +4001,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>291</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4012,12 +4012,12 @@
         <v>46</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>208</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="42" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -4053,7 +4053,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -4076,7 +4076,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -4084,10 +4084,10 @@
         <v>42</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -4114,12 +4114,12 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -4128,7 +4128,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" s="10"/>
     </row>
@@ -4151,12 +4151,12 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="43" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -4185,7 +4185,7 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -4214,7 +4214,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="53" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -4222,10 +4222,10 @@
         <v>42</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -4235,13 +4235,13 @@
       <c r="C57" s="7">
         <v>162</v>
       </c>
-      <c r="D57" s="69" t="s">
-        <v>384</v>
+      <c r="D57" s="63" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C58" s="7">
         <v>72</v>
@@ -4260,7 +4260,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -4273,15 +4273,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C65" s="5">
         <v>10</v>
@@ -4289,12 +4289,12 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C68" s="7">
         <v>200</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C69" s="7">
         <v>200</v>
@@ -4310,23 +4310,23 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="54" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="43" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -4354,15 +4354,15 @@
         <v>61</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C84" s="7">
         <v>60</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C85" s="7">
         <v>80</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="43" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="16.5" customHeight="1">
@@ -4392,7 +4392,7 @@
         <v>59</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -4409,10 +4409,10 @@
         <v>61</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -4423,10 +4423,10 @@
         <v>46</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H90" s="7">
         <v>60</v>
@@ -4443,10 +4443,10 @@
         <v>46</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H91" s="7">
         <v>70</v>
@@ -4457,24 +4457,24 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="42" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G93" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -4508,12 +4508,12 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="54" t="s">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="C104" s="7"/>
     </row>
@@ -4540,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4553,49 +4553,49 @@
     </row>
     <row r="5" spans="1:16">
       <c r="O5" s="55" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="O6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="O7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="O8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="O9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="O11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4637,12 +4637,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4662,12 +4662,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4677,12 +4677,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4692,12 +4692,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4717,12 +4717,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -4737,22 +4737,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -4772,10 +4772,10 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
@@ -4805,12 +4805,12 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -4820,17 +4820,17 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -4840,22 +4840,22 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4889,7 +4889,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -4899,12 +4899,12 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -4924,7 +4924,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -4939,7 +4939,7 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -4949,7 +4949,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -4969,87 +4969,87 @@
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>90</v>
@@ -5139,20 +5139,20 @@
       <c r="E11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="F11" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
       <c r="K11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L11" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
+      <c r="L11" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5">
@@ -5162,22 +5162,22 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="64">
+        <v>241</v>
+      </c>
+      <c r="F12" s="65">
         <v>0.8</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
       <c r="K12" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L12" s="64">
+        <v>241</v>
+      </c>
+      <c r="L12" s="65">
         <v>8</v>
       </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="5">
@@ -5187,46 +5187,46 @@
         <v>60</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+        <v>242</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
       <c r="K13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L13" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
+        <v>245</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" s="45"/>
       <c r="E14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" s="64">
+        <v>230</v>
+      </c>
+      <c r="F14" s="65">
         <v>0.5</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
       <c r="K14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="64">
+        <v>235</v>
+      </c>
+      <c r="L14" s="65">
         <v>12</v>
       </c>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5237,17 +5237,17 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -5255,7 +5255,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>124</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="57" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
@@ -5289,7 +5289,7 @@
         <v>122</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>124</v>
@@ -5297,23 +5297,23 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="58" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="2:14">
@@ -5328,7 +5328,7 @@
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>90</v>
@@ -5337,20 +5337,20 @@
       <c r="E36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
+      <c r="F36" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
       <c r="K36" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L36" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
+      <c r="L36" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="5">
@@ -5360,22 +5360,22 @@
         <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F37" s="65">
+        <v>241</v>
+      </c>
+      <c r="F37" s="66">
         <v>0.7</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="66"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="67"/>
       <c r="K37" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L37" s="65">
+        <v>241</v>
+      </c>
+      <c r="L37" s="66">
         <v>9</v>
       </c>
-      <c r="M37" s="68"/>
-      <c r="N37" s="66"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="67"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="5">
@@ -5385,46 +5385,46 @@
         <v>60</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F38" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="67"/>
+      <c r="K38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L38" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="66"/>
-      <c r="K38" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L38" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="M38" s="68"/>
-      <c r="N38" s="66"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="67"/>
     </row>
     <row r="39" spans="2:14">
       <c r="C39" s="45"/>
       <c r="E39" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" s="65">
+        <v>230</v>
+      </c>
+      <c r="F39" s="66">
         <v>0.4</v>
       </c>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="66"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="67"/>
       <c r="K39" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L39" s="65">
+        <v>235</v>
+      </c>
+      <c r="L39" s="66">
         <v>13</v>
       </c>
-      <c r="M39" s="68"/>
-      <c r="N39" s="66"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="67"/>
     </row>
     <row r="40" spans="2:14">
       <c r="E40" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="2:14">
@@ -5432,29 +5432,29 @@
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D43" s="45"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="2:14">
       <c r="B45" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C46" s="45"/>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="61" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -5514,446 +5514,446 @@
       <c r="B4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="C4" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="H4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="I4" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="66">
         <v>0.8</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="66"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="67"/>
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="66">
         <v>8</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="66">
         <v>0.8</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="66"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="67"/>
       <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="66">
         <v>8</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="66"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="48">
         <v>3</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="66">
         <v>0.7</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="67"/>
       <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="66">
         <v>9</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="66"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="66">
         <v>0.7</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="66"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="67"/>
       <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="66">
         <v>9</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="66"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="49">
         <v>5</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="66">
         <v>0.7</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="66"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="67"/>
       <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="66">
         <v>9</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="66"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="49">
         <v>6</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="66">
         <v>0.6</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="66"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="67"/>
       <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="66">
         <v>10</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="66"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="49">
         <v>7</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="66">
         <v>0.6</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="66"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="67"/>
       <c r="H11" s="7">
         <v>7</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="66">
         <v>10</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="66"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="49">
         <v>8</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="66">
         <v>0.6</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="66"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="67"/>
       <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="66">
         <v>10</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="66"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="49">
         <v>9</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="66">
         <v>0.5</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="66"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="67"/>
       <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="66">
         <v>11</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="66"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11">
       <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="66">
         <v>11</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="66"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11">
       <c r="H15" s="7">
         <v>11</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="66">
         <v>11</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="66"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11">
       <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="66">
         <v>12</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="66"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="C21" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="H21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
+      <c r="I21" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="66">
         <v>0.7</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="66"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="67"/>
       <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="66">
         <v>9</v>
       </c>
-      <c r="J22" s="68"/>
-      <c r="K22" s="66"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="66">
         <v>0.7</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="66"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="67"/>
       <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="66">
         <v>9</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="48">
         <v>3</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="66">
         <v>0.6</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="66"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="67"/>
       <c r="H24" s="7">
         <v>3</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="66">
         <v>10</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="66"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="7">
         <v>4</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="66">
         <v>0.6</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="66"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="67"/>
       <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="66">
         <v>10</v>
       </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="66"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="49">
         <v>5</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="66">
         <v>0.6</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="66"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="67"/>
       <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="66">
         <v>10</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="66"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="49">
         <v>6</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="66">
         <v>0.5</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="66"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="67"/>
       <c r="H27" s="7">
         <v>6</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="66">
         <v>11</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="66"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="49">
         <v>7</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="66">
         <v>0.5</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="66"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="67"/>
       <c r="H28" s="7">
         <v>7</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="66">
         <v>11</v>
       </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="66"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="49">
         <v>8</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="66">
         <v>0.5</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="66"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="67"/>
       <c r="H29" s="7">
         <v>8</v>
       </c>
-      <c r="I29" s="65">
+      <c r="I29" s="66">
         <v>11</v>
       </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="66"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="49">
         <v>9</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="66">
         <v>0.4</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="66"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="67"/>
       <c r="H30" s="7">
         <v>9</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="66">
         <v>12</v>
       </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="66"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11">
       <c r="H31" s="7">
         <v>10</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="66">
         <v>12</v>
       </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="66"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="2:11">
       <c r="H32" s="7">
         <v>11</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="66">
         <v>12</v>
       </c>
-      <c r="J32" s="68"/>
-      <c r="K32" s="66"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="8:11">
       <c r="H33" s="7">
         <v>12</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="66">
         <v>13</v>
       </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="66"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/Design/MiniGame기획서_김현지.xlsx
+++ b/Design/MiniGame기획서_김현지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB19F523-6C22-4F39-8965-E5587BA1DB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2E6DB0-9FFF-480E-A597-EB52B882AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
@@ -1662,15 +1662,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.5초에 60% 확률로 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3초에 40% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5초에 10% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5초에 45% 확률로 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2141,10 +2141,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3860,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A592E-0AA0-4E6E-B1C2-6B838E65CF45}">
   <dimension ref="B2:L104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4423,7 +4423,7 @@
         <v>46</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>208</v>
@@ -4463,7 +4463,7 @@
         <v>46</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G92" s="43" t="s">
         <v>374</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C104" s="7"/>
     </row>
@@ -5189,12 +5189,12 @@
       <c r="E13" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
       <c r="K13" s="7" t="s">
         <v>245</v>
       </c>
@@ -5365,8 +5365,8 @@
       <c r="F37" s="66">
         <v>0.7</v>
       </c>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="67"/>
       <c r="K37" s="7" t="s">
         <v>241</v>
@@ -5374,7 +5374,7 @@
       <c r="L37" s="66">
         <v>9</v>
       </c>
-      <c r="M37" s="69"/>
+      <c r="M37" s="68"/>
       <c r="N37" s="67"/>
     </row>
     <row r="38" spans="2:14">
@@ -5390,8 +5390,8 @@
       <c r="F38" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="67"/>
       <c r="K38" s="7" t="s">
         <v>245</v>
@@ -5399,7 +5399,7 @@
       <c r="L38" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="M38" s="69"/>
+      <c r="M38" s="68"/>
       <c r="N38" s="67"/>
     </row>
     <row r="39" spans="2:14">
@@ -5410,8 +5410,8 @@
       <c r="F39" s="66">
         <v>0.4</v>
       </c>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="67"/>
       <c r="K39" s="7" t="s">
         <v>235</v>
@@ -5419,7 +5419,7 @@
       <c r="L39" s="66">
         <v>13</v>
       </c>
-      <c r="M39" s="69"/>
+      <c r="M39" s="68"/>
       <c r="N39" s="67"/>
     </row>
     <row r="40" spans="2:14">
@@ -5472,12 +5472,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="L39:N39"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -5488,6 +5482,12 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="L39:N39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5536,8 +5536,8 @@
       <c r="C5" s="66">
         <v>0.8</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="67"/>
       <c r="H5" s="7">
         <v>1</v>
@@ -5545,7 +5545,7 @@
       <c r="I5" s="66">
         <v>8</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11">
@@ -5555,8 +5555,8 @@
       <c r="C6" s="66">
         <v>0.8</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="67"/>
       <c r="H6" s="7">
         <v>2</v>
@@ -5564,7 +5564,7 @@
       <c r="I6" s="66">
         <v>8</v>
       </c>
-      <c r="J6" s="69"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11">
@@ -5574,8 +5574,8 @@
       <c r="C7" s="66">
         <v>0.7</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="67"/>
       <c r="H7" s="7">
         <v>3</v>
@@ -5583,7 +5583,7 @@
       <c r="I7" s="66">
         <v>9</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11">
@@ -5593,8 +5593,8 @@
       <c r="C8" s="66">
         <v>0.7</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="67"/>
       <c r="H8" s="7">
         <v>4</v>
@@ -5602,7 +5602,7 @@
       <c r="I8" s="66">
         <v>9</v>
       </c>
-      <c r="J8" s="69"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11">
@@ -5612,8 +5612,8 @@
       <c r="C9" s="66">
         <v>0.7</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="67"/>
       <c r="H9" s="7">
         <v>5</v>
@@ -5621,7 +5621,7 @@
       <c r="I9" s="66">
         <v>9</v>
       </c>
-      <c r="J9" s="69"/>
+      <c r="J9" s="68"/>
       <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11">
@@ -5631,8 +5631,8 @@
       <c r="C10" s="66">
         <v>0.6</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="67"/>
       <c r="H10" s="7">
         <v>6</v>
@@ -5640,7 +5640,7 @@
       <c r="I10" s="66">
         <v>10</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11">
@@ -5650,8 +5650,8 @@
       <c r="C11" s="66">
         <v>0.6</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="67"/>
       <c r="H11" s="7">
         <v>7</v>
@@ -5659,7 +5659,7 @@
       <c r="I11" s="66">
         <v>10</v>
       </c>
-      <c r="J11" s="69"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11">
@@ -5669,8 +5669,8 @@
       <c r="C12" s="66">
         <v>0.6</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="67"/>
       <c r="H12" s="7">
         <v>8</v>
@@ -5678,7 +5678,7 @@
       <c r="I12" s="66">
         <v>10</v>
       </c>
-      <c r="J12" s="69"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11">
@@ -5688,8 +5688,8 @@
       <c r="C13" s="66">
         <v>0.5</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="67"/>
       <c r="H13" s="7">
         <v>9</v>
@@ -5697,7 +5697,7 @@
       <c r="I13" s="66">
         <v>11</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11">
@@ -5707,7 +5707,7 @@
       <c r="I14" s="66">
         <v>11</v>
       </c>
-      <c r="J14" s="69"/>
+      <c r="J14" s="68"/>
       <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11">
@@ -5717,7 +5717,7 @@
       <c r="I15" s="66">
         <v>11</v>
       </c>
-      <c r="J15" s="69"/>
+      <c r="J15" s="68"/>
       <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11">
@@ -5727,7 +5727,7 @@
       <c r="I16" s="66">
         <v>12</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="67"/>
     </row>
     <row r="19" spans="2:11">
@@ -5761,8 +5761,8 @@
       <c r="C22" s="66">
         <v>0.7</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="67"/>
       <c r="H22" s="7">
         <v>1</v>
@@ -5770,7 +5770,7 @@
       <c r="I22" s="66">
         <v>9</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="68"/>
       <c r="K22" s="67"/>
     </row>
     <row r="23" spans="2:11">
@@ -5780,8 +5780,8 @@
       <c r="C23" s="66">
         <v>0.7</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="67"/>
       <c r="H23" s="7">
         <v>2</v>
@@ -5789,7 +5789,7 @@
       <c r="I23" s="66">
         <v>9</v>
       </c>
-      <c r="J23" s="69"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="67"/>
     </row>
     <row r="24" spans="2:11">
@@ -5799,8 +5799,8 @@
       <c r="C24" s="66">
         <v>0.6</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="67"/>
       <c r="H24" s="7">
         <v>3</v>
@@ -5808,7 +5808,7 @@
       <c r="I24" s="66">
         <v>10</v>
       </c>
-      <c r="J24" s="69"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11">
@@ -5818,8 +5818,8 @@
       <c r="C25" s="66">
         <v>0.6</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="67"/>
       <c r="H25" s="7">
         <v>4</v>
@@ -5827,7 +5827,7 @@
       <c r="I25" s="66">
         <v>10</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="68"/>
       <c r="K25" s="67"/>
     </row>
     <row r="26" spans="2:11">
@@ -5837,8 +5837,8 @@
       <c r="C26" s="66">
         <v>0.6</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="67"/>
       <c r="H26" s="7">
         <v>5</v>
@@ -5846,7 +5846,7 @@
       <c r="I26" s="66">
         <v>10</v>
       </c>
-      <c r="J26" s="69"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="67"/>
     </row>
     <row r="27" spans="2:11">
@@ -5856,8 +5856,8 @@
       <c r="C27" s="66">
         <v>0.5</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="67"/>
       <c r="H27" s="7">
         <v>6</v>
@@ -5865,7 +5865,7 @@
       <c r="I27" s="66">
         <v>11</v>
       </c>
-      <c r="J27" s="69"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="67"/>
     </row>
     <row r="28" spans="2:11">
@@ -5875,8 +5875,8 @@
       <c r="C28" s="66">
         <v>0.5</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="67"/>
       <c r="H28" s="7">
         <v>7</v>
@@ -5884,7 +5884,7 @@
       <c r="I28" s="66">
         <v>11</v>
       </c>
-      <c r="J28" s="69"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="67"/>
     </row>
     <row r="29" spans="2:11">
@@ -5894,8 +5894,8 @@
       <c r="C29" s="66">
         <v>0.5</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="67"/>
       <c r="H29" s="7">
         <v>8</v>
@@ -5903,7 +5903,7 @@
       <c r="I29" s="66">
         <v>11</v>
       </c>
-      <c r="J29" s="69"/>
+      <c r="J29" s="68"/>
       <c r="K29" s="67"/>
     </row>
     <row r="30" spans="2:11">
@@ -5913,8 +5913,8 @@
       <c r="C30" s="66">
         <v>0.4</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="67"/>
       <c r="H30" s="7">
         <v>9</v>
@@ -5922,7 +5922,7 @@
       <c r="I30" s="66">
         <v>12</v>
       </c>
-      <c r="J30" s="69"/>
+      <c r="J30" s="68"/>
       <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11">
@@ -5932,7 +5932,7 @@
       <c r="I31" s="66">
         <v>12</v>
       </c>
-      <c r="J31" s="69"/>
+      <c r="J31" s="68"/>
       <c r="K31" s="67"/>
     </row>
     <row r="32" spans="2:11">
@@ -5942,7 +5942,7 @@
       <c r="I32" s="66">
         <v>12</v>
       </c>
-      <c r="J32" s="69"/>
+      <c r="J32" s="68"/>
       <c r="K32" s="67"/>
     </row>
     <row r="33" spans="8:11">
@@ -5952,11 +5952,48 @@
       <c r="I33" s="66">
         <v>13</v>
       </c>
-      <c r="J33" s="69"/>
+      <c r="J33" s="68"/>
       <c r="K33" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -5966,43 +6003,6 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
